--- a/LISTA DE PRECIOS WEB.xlsx
+++ b/LISTA DE PRECIOS WEB.xlsx
@@ -2001,20 +2001,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2022,7 +2016,14 @@
       <u val="single"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -2087,19 +2088,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2107,15 +2104,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4400,86 +4401,87 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A271" activeCellId="0" sqref="A271"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="2" width="10.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <v>43000</v>
       </c>
     </row>
@@ -4487,575 +4489,576 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <v>34000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="3" t="n">
         <v>40000</v>
       </c>
+      <c r="M12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="3" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="3" t="n">
         <v>35000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="3" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4" t="n">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="3" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="3" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3" t="n">
         <v>48000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="3" t="n">
         <v>37000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
@@ -5063,220 +5066,220 @@
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="3" t="n">
         <v>53000</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="3" t="n">
         <v>43000</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="4" t="n">
+      <c r="E47" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="4" t="n">
+      <c r="E48" s="3" t="n">
         <v>43000</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="4" t="n">
+      <c r="E49" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="4" t="n">
+      <c r="E50" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="4" t="n">
+      <c r="E51" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -5284,84 +5287,84 @@
       <c r="A52" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="4" t="n">
+      <c r="E52" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="4" t="n">
+      <c r="E53" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="4" t="n">
+      <c r="E54" s="3" t="n">
         <v>43000</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="4" t="n">
+      <c r="E55" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="4" t="n">
+      <c r="E56" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -5369,50 +5372,50 @@
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="4" t="n">
+      <c r="E57" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="4" t="n">
+      <c r="E58" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="4" t="n">
+      <c r="E59" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -5420,152 +5423,152 @@
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="4" t="n">
+      <c r="E60" s="3" t="n">
         <v>54000</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="4" t="n">
+      <c r="E61" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="4" t="n">
+      <c r="E62" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E63" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="4" t="n">
+      <c r="E64" s="3" t="n">
         <v>58000</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="4" t="n">
+      <c r="E65" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="4" t="n">
+      <c r="E66" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="4" t="n">
+      <c r="E67" s="3" t="n">
         <v>58000</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="4" t="n">
+      <c r="E68" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -5573,50 +5576,50 @@
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="4" t="n">
+      <c r="E69" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="4" t="n">
+      <c r="E70" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="4" t="n">
+      <c r="E71" s="3" t="n">
         <v>53000</v>
       </c>
     </row>
@@ -5624,50 +5627,50 @@
       <c r="A72" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="4" t="n">
+      <c r="E72" s="3" t="n">
         <v>53000</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="4" t="n">
+      <c r="E73" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="4" t="n">
+      <c r="E74" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -5675,16 +5678,16 @@
       <c r="A75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="4" t="n">
+      <c r="E75" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -5692,33 +5695,33 @@
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E76" s="4" t="n">
+      <c r="E76" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E77" s="4" t="n">
+      <c r="E77" s="3" t="n">
         <v>58000</v>
       </c>
     </row>
@@ -5726,50 +5729,50 @@
       <c r="A78" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="4" t="n">
+      <c r="E78" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="4" t="n">
+      <c r="E79" s="3" t="n">
         <v>45000</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E80" s="4" t="n">
+      <c r="E80" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -5777,16 +5780,16 @@
       <c r="A81" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="4" t="n">
+      <c r="E81" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -5794,50 +5797,50 @@
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="4" t="n">
+      <c r="E82" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="4" t="n">
+      <c r="E83" s="3" t="n">
         <v>53000</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="4" t="n">
+      <c r="E84" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -5845,16 +5848,16 @@
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
@@ -5862,33 +5865,33 @@
       <c r="A86" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="4" t="n">
+      <c r="E86" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="4" t="n">
+      <c r="E87" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -5896,84 +5899,84 @@
       <c r="A88" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="4" t="n">
+      <c r="E88" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E89" s="4" t="n">
+      <c r="E89" s="3" t="n">
         <v>63000</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="4" t="n">
+      <c r="E90" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="4" t="n">
+      <c r="E91" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="4" t="n">
+      <c r="E92" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -5981,67 +5984,67 @@
       <c r="A93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="4" t="n">
+      <c r="E93" s="3" t="n">
         <v>53000</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="4" t="n">
+      <c r="E94" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E95" s="4" t="n">
+      <c r="E95" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E96" s="4" t="n">
+      <c r="E96" s="3" t="n">
         <v>62000</v>
       </c>
     </row>
@@ -6049,67 +6052,67 @@
       <c r="A97" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E97" s="4" t="n">
+      <c r="E97" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E98" s="4" t="n">
+      <c r="E98" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="4" t="n">
+      <c r="E99" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E100" s="4" t="n">
+      <c r="E100" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -6117,33 +6120,33 @@
       <c r="A101" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E101" s="4" t="n">
+      <c r="E101" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E102" s="4" t="n">
+      <c r="E102" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6151,50 +6154,50 @@
       <c r="A103" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E103" s="4" t="n">
+      <c r="E103" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="4" t="n">
+      <c r="E104" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="4" t="n">
+      <c r="E105" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -6202,201 +6205,201 @@
       <c r="A106" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="4" t="n">
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E107" s="4" t="n">
+      <c r="E107" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E108" s="4" t="n">
+      <c r="E108" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E109" s="4" t="n">
+      <c r="E109" s="3" t="n">
         <v>55000</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="4" t="n">
+      <c r="E110" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E111" s="4" t="n">
+      <c r="E111" s="3" t="n">
         <v>63000</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E112" s="4" t="n">
+      <c r="E112" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E113" s="4" t="n">
+      <c r="E113" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="4" t="n">
+      <c r="E114" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="4" t="n">
+      <c r="E115" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E116" s="4" t="n">
+      <c r="E116" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E117" s="4" t="n">
+      <c r="E117" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
@@ -6404,152 +6407,152 @@
       <c r="A118" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E118" s="4" t="n">
+      <c r="E118" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E119" s="4" t="n">
+      <c r="E119" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E120" s="4" t="n">
+      <c r="E120" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E121" s="4" t="n">
+      <c r="E121" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E122" s="4" t="n">
+      <c r="E122" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E123" s="4" t="n">
+      <c r="E123" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E124" s="4" t="n">
+      <c r="E124" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E125" s="4" t="n">
+      <c r="E125" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E126" s="4" t="n">
+      <c r="E126" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -6557,16 +6560,16 @@
       <c r="A127" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E127" s="4" t="n">
+      <c r="E127" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
@@ -6574,33 +6577,33 @@
       <c r="A128" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E128" s="4" t="n">
+      <c r="E128" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E129" s="4" t="n">
+      <c r="E129" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6608,16 +6611,16 @@
       <c r="A130" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E130" s="4" t="n">
+      <c r="E130" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -6625,84 +6628,84 @@
       <c r="A131" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E131" s="4" t="n">
+      <c r="E131" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E132" s="4" t="n">
+      <c r="E132" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E133" s="4" t="n">
+      <c r="E133" s="3" t="n">
         <v>175000</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E134" s="4" t="n">
+      <c r="E134" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E135" s="4" t="n">
+      <c r="E135" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -6710,84 +6713,84 @@
       <c r="A136" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E136" s="4" t="n">
+      <c r="E136" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E137" s="4" t="n">
+      <c r="E137" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E138" s="4" t="n">
+      <c r="E138" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E139" s="4" t="n">
+      <c r="E139" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E140" s="4" t="n">
+      <c r="E140" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6795,67 +6798,67 @@
       <c r="A141" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E141" s="4" t="n">
+      <c r="E141" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E142" s="4" t="n">
+      <c r="E142" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="4" t="n">
+      <c r="E143" s="3" t="n">
         <v>72900</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E144" s="4" t="n">
+      <c r="E144" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -6863,33 +6866,33 @@
       <c r="A145" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E145" s="4" t="n">
+      <c r="E145" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E146" s="4" t="n">
+      <c r="E146" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -6897,152 +6900,152 @@
       <c r="A147" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E147" s="4" t="n">
+      <c r="E147" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E148" s="4" t="n">
+      <c r="E148" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E149" s="4" t="n">
+      <c r="E149" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E150" s="4" t="n">
+      <c r="E150" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E151" s="4" t="n">
+      <c r="E151" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E152" s="4" t="n">
+      <c r="E152" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E153" s="4" t="n">
+      <c r="E153" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E154" s="4" t="n">
+      <c r="E154" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E155" s="4" t="n">
+      <c r="E155" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -7050,33 +7053,33 @@
       <c r="A156" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E156" s="4" t="n">
+      <c r="E156" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E157" s="4" t="n">
+      <c r="E157" s="3" t="n">
         <v>105000</v>
       </c>
     </row>
@@ -7084,16 +7087,16 @@
       <c r="A158" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E158" s="4" t="n">
+      <c r="E158" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
@@ -7101,220 +7104,220 @@
       <c r="A159" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E159" s="4" t="n">
+      <c r="E159" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="4" t="n">
+      <c r="E160" s="3" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E161" s="4" t="n">
+      <c r="E161" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E162" s="4" t="n">
+      <c r="E162" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E163" s="4" t="n">
+      <c r="E163" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E164" s="4" t="n">
+      <c r="E164" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E165" s="4" t="n">
+      <c r="E165" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="4" t="n">
+      <c r="E166" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E167" s="4" t="n">
+      <c r="E167" s="3" t="n">
         <v>60000</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E168" s="4" t="n">
+      <c r="E168" s="3" t="n">
         <v>65000</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E169" s="4" t="n">
+      <c r="E169" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E170" s="4" t="n">
+      <c r="E170" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E171" s="4" t="n">
+      <c r="E171" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
@@ -7322,16 +7325,16 @@
       <c r="A172" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E172" s="4" t="n">
+      <c r="E172" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
@@ -7339,50 +7342,50 @@
       <c r="A173" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E173" s="4" t="n">
+      <c r="E173" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E174" s="4" t="n">
+      <c r="E174" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E175" s="4" t="n">
+      <c r="E175" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -7390,16 +7393,16 @@
       <c r="A176" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E176" s="4" t="n">
+      <c r="E176" s="3" t="n">
         <v>180000</v>
       </c>
     </row>
@@ -7407,50 +7410,50 @@
       <c r="A177" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E177" s="4" t="n">
+      <c r="E177" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E178" s="4" t="n">
+      <c r="E178" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E179" s="4" t="n">
+      <c r="E179" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
@@ -7458,84 +7461,84 @@
       <c r="A180" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E180" s="4" t="n">
+      <c r="E180" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E181" s="4" t="n">
+      <c r="E181" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E182" s="4" t="n">
+      <c r="E182" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E183" s="4" t="n">
+      <c r="E183" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E184" s="4" t="n">
+      <c r="E184" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
@@ -7543,84 +7546,84 @@
       <c r="A185" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E185" s="4" t="n">
+      <c r="E185" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E186" s="4" t="n">
+      <c r="E186" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E187" s="4" t="n">
+      <c r="E187" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E188" s="4" t="n">
+      <c r="E188" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E189" s="4" t="n">
+      <c r="E189" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -7628,33 +7631,33 @@
       <c r="A190" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E190" s="4" t="n">
+      <c r="E190" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E191" s="4" t="n">
+      <c r="E191" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -7662,67 +7665,67 @@
       <c r="A192" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E192" s="4" t="n">
+      <c r="E192" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E193" s="4" t="n">
+      <c r="E193" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E194" s="4" t="n">
+      <c r="E194" s="3" t="n">
         <v>80000</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E195" s="4" t="n">
+      <c r="E195" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -7730,16 +7733,16 @@
       <c r="A196" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E196" s="4" t="n">
+      <c r="E196" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -7747,16 +7750,16 @@
       <c r="A197" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E197" s="4" t="n">
+      <c r="E197" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
@@ -7764,16 +7767,16 @@
       <c r="A198" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E198" s="4" t="n">
+      <c r="E198" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
@@ -7781,84 +7784,84 @@
       <c r="A199" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E199" s="4" t="n">
+      <c r="E199" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E200" s="4" t="n">
+      <c r="E200" s="3" t="n">
         <v>75000</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E201" s="4" t="n">
+      <c r="E201" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E202" s="4" t="n">
+      <c r="E202" s="3" t="n">
         <v>115000</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E203" s="4" t="n">
+      <c r="E203" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -7866,16 +7869,16 @@
       <c r="A204" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E204" s="4" t="n">
+      <c r="E204" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -7883,16 +7886,16 @@
       <c r="A205" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E205" s="4" t="n">
+      <c r="E205" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
@@ -7900,16 +7903,16 @@
       <c r="A206" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E206" s="4" t="n">
+      <c r="E206" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
@@ -7917,84 +7920,84 @@
       <c r="A207" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E207" s="4" t="n">
+      <c r="E207" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="4" t="n">
+      <c r="E208" s="3" t="n">
         <v>70000</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E209" s="4" t="n">
+      <c r="E209" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E210" s="4" t="n">
+      <c r="E210" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E211" s="4" t="n">
+      <c r="E211" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8002,16 +8005,16 @@
       <c r="A212" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E212" s="4" t="n">
+      <c r="E212" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
@@ -8019,16 +8022,16 @@
       <c r="A213" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E213" s="4" t="n">
+      <c r="E213" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
@@ -8036,101 +8039,101 @@
       <c r="A214" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E214" s="4" t="n">
+      <c r="E214" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E215" s="4" t="n">
+      <c r="E215" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E216" s="4" t="n">
+      <c r="E216" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E217" s="4" t="n">
+      <c r="E217" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E218" s="4" t="n">
+      <c r="E218" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E219" s="4" t="n">
+      <c r="E219" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -8138,50 +8141,50 @@
       <c r="A220" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E220" s="4" t="n">
+      <c r="E220" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E221" s="4" t="n">
+      <c r="E221" s="3" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E222" s="4" t="n">
+      <c r="E222" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8189,152 +8192,152 @@
       <c r="A223" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E223" s="4" t="n">
+      <c r="E223" s="3" t="n">
         <v>115000</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E224" s="4" t="n">
+      <c r="E224" s="3" t="n">
         <v>145000</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E225" s="4" t="n">
+      <c r="E225" s="3" t="n">
         <v>85000</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E226" s="4" t="n">
+      <c r="E226" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E227" s="4" t="n">
+      <c r="E227" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E228" s="4" t="n">
+      <c r="E228" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E229" s="4" t="n">
+      <c r="E229" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E230" s="4" t="n">
+      <c r="E230" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E231" s="4" t="n">
+      <c r="E231" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8342,16 +8345,16 @@
       <c r="A232" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E232" s="4" t="n">
+      <c r="E232" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -8359,16 +8362,16 @@
       <c r="A233" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E233" s="4" t="n">
+      <c r="E233" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -8376,84 +8379,84 @@
       <c r="A234" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E234" s="4" t="n">
+      <c r="E234" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E235" s="4" t="n">
+      <c r="E235" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E236" s="4" t="n">
+      <c r="E236" s="3" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E237" s="4" t="n">
+      <c r="E237" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E238" s="4" t="n">
+      <c r="E238" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
@@ -8461,101 +8464,101 @@
       <c r="A239" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E239" s="4" t="n">
+      <c r="E239" s="3" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E240" s="4" t="n">
+      <c r="E240" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E241" s="4" t="n">
+      <c r="E241" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E242" s="4" t="n">
+      <c r="E242" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E243" s="4" t="n">
+      <c r="E243" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E244" s="4" t="n">
+      <c r="E244" s="3" t="n">
         <v>115000</v>
       </c>
     </row>
@@ -8563,67 +8566,67 @@
       <c r="A245" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E245" s="4" t="n">
+      <c r="E245" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E246" s="4" t="n">
+      <c r="E246" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E247" s="4" t="n">
+      <c r="E247" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E248" s="4" t="n">
+      <c r="E248" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -8631,67 +8634,67 @@
       <c r="A249" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B249" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E249" s="4" t="n">
+      <c r="E249" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B250" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E250" s="4" t="n">
+      <c r="E250" s="3" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E251" s="4" t="n">
+      <c r="E251" s="3" t="n">
         <v>95000</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E252" s="4" t="n">
+      <c r="E252" s="3" t="n">
         <v>115000</v>
       </c>
     </row>
@@ -8699,169 +8702,169 @@
       <c r="A253" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E253" s="4" t="n">
+      <c r="E253" s="3" t="n">
         <v>300000</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E254" s="4" t="n">
+      <c r="E254" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E255" s="4" t="n">
+      <c r="E255" s="3" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E256" s="4" t="n">
+      <c r="E256" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E257" s="4" t="n">
+      <c r="E257" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E258" s="4" t="n">
+      <c r="E258" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E259" s="4" t="n">
+      <c r="E259" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E260" s="4" t="n">
+      <c r="E260" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E261" s="4" t="n">
+      <c r="E261" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E262" s="4" t="n">
+      <c r="E262" s="3" t="n">
         <v>130000</v>
       </c>
     </row>
@@ -8869,101 +8872,101 @@
       <c r="A263" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E263" s="4" t="n">
+      <c r="E263" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E264" s="4" t="n">
+      <c r="E264" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E265" s="4" t="n">
+      <c r="E265" s="3" t="n">
         <v>145000</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E266" s="4" t="n">
+      <c r="E266" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E267" s="4" t="n">
+      <c r="E267" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E268" s="4" t="n">
+      <c r="E268" s="3" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -8971,33 +8974,33 @@
       <c r="A269" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E269" s="4" t="n">
+      <c r="E269" s="3" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E270" s="4" t="n">
+      <c r="E270" s="3" t="n">
         <v>125000</v>
       </c>
     </row>
@@ -9005,305 +9008,305 @@
       <c r="A271" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E271" s="4" t="n">
+      <c r="E271" s="3" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E272" s="4" t="n">
+      <c r="E272" s="3" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E273" s="4" t="n">
+      <c r="E273" s="3" t="n">
         <v>155000</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E274" s="4" t="n">
+      <c r="E274" s="3" t="n">
         <v>210000</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E275" s="4" t="n">
+      <c r="E275" s="3" t="n">
         <v>170000</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E276" s="4" t="n">
+      <c r="E276" s="3" t="n">
         <v>165000</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E277" s="4" t="n">
+      <c r="E277" s="3" t="n">
         <v>150000</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="4" t="n">
+      <c r="E278" s="3" t="n">
         <v>170000</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E279" s="4" t="n">
+      <c r="E279" s="3" t="n">
         <v>140000</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E280" s="4" t="n">
+      <c r="E280" s="3" t="n">
         <v>145000</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="B281" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E281" s="4" t="n">
+      <c r="E281" s="3" t="n">
         <v>145000</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E282" s="4" t="n">
+      <c r="E282" s="3" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E283" s="4" t="n">
+      <c r="E283" s="3" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E284" s="4" t="n">
+      <c r="E284" s="3" t="n">
         <v>40000</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E285" s="4" t="n">
+      <c r="E285" s="3" t="n">
         <v>38000</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C286" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E286" s="4" t="n">
+      <c r="E286" s="3" t="n">
         <v>52000</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="E287" s="4" t="n">
+      <c r="E287" s="3" t="n">
         <v>50000</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E288" s="4" t="n">
+      <c r="E288" s="3" t="n">
         <v>58000</v>
       </c>
     </row>
@@ -9311,16 +9314,16 @@
       <c r="A289" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E289" s="4" t="n">
+      <c r="E289" s="3" t="n">
         <v>85000</v>
       </c>
       <c r="G289" s="8"/>
@@ -9329,16 +9332,16 @@
       <c r="A290" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E290" s="4" t="n">
+      <c r="E290" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -9346,37 +9349,19 @@
       <c r="A291" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E291" s="4" t="n">
+      <c r="E291" s="3" t="n">
         <v>110000</v>
       </c>
     </row>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A282:A283">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>

--- a/LISTA DE PRECIOS WEB.xlsx
+++ b/LISTA DE PRECIOS WEB.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\Documentos\SAMCOR\listaweb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC7DE1-C4A8-48CF-8C2A-C062B31A16EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,1982 +27,1964 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="649">
   <si>
-    <t xml:space="preserve">SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457012ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145/70R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROADX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXI-T01T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1457013LING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145/70R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LINGLONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14513BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145R13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRIGHTWAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRP188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14513NEX321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEXEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1556513MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155/65R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1556514KETE277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155/65R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KETER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KT277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1556514ROADH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1557012MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155/70R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1557013KETEKT277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155/70R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15512TIAN105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155R12LT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIANFU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD105B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15513LONG901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155R13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LONGWAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZT901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1655015SUMAGZ1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/50R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMAXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX DRIFTING Z1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1656014MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/60R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1656513ROTARONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/65R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTARMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-ONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1656514ROADH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/65R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1657012HIFLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/70R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIFLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HF201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1657013MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/70R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1657014MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/70R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1658014MR162M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165/80R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16513LONG101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165R13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZT101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16514GRENLPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREENLANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPOWER 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16514HAID517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAIDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1755015ROADH03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/50R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1755515ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/55R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756013MIRAMR166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/60R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756014MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/60R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756015APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/60R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APTANY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756514APTA108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/65R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756514APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/65R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756514MIRAMR166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1756515KUSTRADI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/65R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUSTONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1757013MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/70R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1757013ROADH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1757014ROADRA63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/70R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROADCRUZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1757014MIRA200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/70R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1758014SUMAALLTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175/80R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17514MIRA2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1854515WINDF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/45R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WINDOFRCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATCHFORS HP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855514APT203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/55R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855515APT203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/55R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855515ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855516ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/55R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856013GRENCOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/60R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLO H01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856014GRENCOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/60R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLO H02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856015QUIETQ7K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/60R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856015MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856514GRENCOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/65R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856514ROADH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856515BEARBW36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/65R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEARWAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856515ROADH1292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856515APOLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APOLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALNAC 4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1856515DOUBDK768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/65R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUBLE KING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1857013MIRAMR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/70R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1857014ROTARONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185/70R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R-0NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18514MIRAMR30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954017COMF700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/40ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMFORSER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954017OTIONU11R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954515ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/45R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1954516ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/45R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955015ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/50R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955015APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955015SUMADR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX SPEED R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955015SUMADRIFTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX DRIFTING X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955016ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/50R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955515ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/55R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955515SUMADRIFTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955515SUMADR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955515APOLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955516ROADH1291V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/55R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1955516MIRAMR166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956014ROADH11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956015APTRP203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956015ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956015PIRELLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIRELLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTURATO P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956016GRENLMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/60R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMAX 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956016ROADH12</t>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>MEDIDA</t>
+  </si>
+  <si>
+    <t>MARCA</t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>1457012ROADT01</t>
+  </si>
+  <si>
+    <t>145/70R12</t>
+  </si>
+  <si>
+    <t>ROADX</t>
+  </si>
+  <si>
+    <t>TAXI-T01T</t>
+  </si>
+  <si>
+    <t>1457013LING</t>
+  </si>
+  <si>
+    <t>145/70R13</t>
+  </si>
+  <si>
+    <t>LINGLONG</t>
+  </si>
+  <si>
+    <t>R701</t>
+  </si>
+  <si>
+    <t>14513BW</t>
+  </si>
+  <si>
+    <t>145R13C</t>
+  </si>
+  <si>
+    <t>BRIGHTWAY</t>
+  </si>
+  <si>
+    <t>LRP188</t>
+  </si>
+  <si>
+    <t>14513NEX321</t>
+  </si>
+  <si>
+    <t>NEXEN</t>
+  </si>
+  <si>
+    <t>CP321</t>
+  </si>
+  <si>
+    <t>1556513MIRAMR16</t>
+  </si>
+  <si>
+    <t>155/65R13</t>
+  </si>
+  <si>
+    <t>MIRAGE</t>
+  </si>
+  <si>
+    <t>MR166</t>
+  </si>
+  <si>
+    <t>1556514KETE277</t>
+  </si>
+  <si>
+    <t>155/65R14</t>
+  </si>
+  <si>
+    <t>KETER</t>
+  </si>
+  <si>
+    <t>KT277</t>
+  </si>
+  <si>
+    <t>1556514ROADH11</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>1557012MIRAMR16</t>
+  </si>
+  <si>
+    <t>155/70R12</t>
+  </si>
+  <si>
+    <t>1557013KETEKT277</t>
+  </si>
+  <si>
+    <t>155/70R13</t>
+  </si>
+  <si>
+    <t>15512TIAN105</t>
+  </si>
+  <si>
+    <t>155R12LT</t>
+  </si>
+  <si>
+    <t>TIANFU</t>
+  </si>
+  <si>
+    <t>RD105B</t>
+  </si>
+  <si>
+    <t>15513LONG901</t>
+  </si>
+  <si>
+    <t>155R13C</t>
+  </si>
+  <si>
+    <t>LONGWAY</t>
+  </si>
+  <si>
+    <t>ZT901</t>
+  </si>
+  <si>
+    <t>1655015SUMAGZ1</t>
+  </si>
+  <si>
+    <t>165/50R15</t>
+  </si>
+  <si>
+    <t>SUMAXX</t>
+  </si>
+  <si>
+    <t>MAX DRIFTING Z1</t>
+  </si>
+  <si>
+    <t>1656014MIRAMR16</t>
+  </si>
+  <si>
+    <t>165/60R14</t>
+  </si>
+  <si>
+    <t>1656513ROTARONE</t>
+  </si>
+  <si>
+    <t>165/65R13</t>
+  </si>
+  <si>
+    <t>ROTARMAX</t>
+  </si>
+  <si>
+    <t>R-ONE</t>
+  </si>
+  <si>
+    <t>1656514ROADH11</t>
+  </si>
+  <si>
+    <t>165/65R14</t>
+  </si>
+  <si>
+    <t>1657012HIFLY</t>
+  </si>
+  <si>
+    <t>165/70R12</t>
+  </si>
+  <si>
+    <t>HIFLY</t>
+  </si>
+  <si>
+    <t>HF201</t>
+  </si>
+  <si>
+    <t>1657013MIRAMR16</t>
+  </si>
+  <si>
+    <t>165/70R13</t>
+  </si>
+  <si>
+    <t>1657014MIRAMR16</t>
+  </si>
+  <si>
+    <t>165/70R14</t>
+  </si>
+  <si>
+    <t>1658014MR162M</t>
+  </si>
+  <si>
+    <t>165/80R14</t>
+  </si>
+  <si>
+    <t>MR162</t>
+  </si>
+  <si>
+    <t>16513LONG101</t>
+  </si>
+  <si>
+    <t>165R13C</t>
+  </si>
+  <si>
+    <t>ZT101</t>
+  </si>
+  <si>
+    <t>16514GRENLPO</t>
+  </si>
+  <si>
+    <t>165R14C</t>
+  </si>
+  <si>
+    <t>GREENLANDER</t>
+  </si>
+  <si>
+    <t>LPOWER 28</t>
+  </si>
+  <si>
+    <t>16514HAID517</t>
+  </si>
+  <si>
+    <t>HAIDA</t>
+  </si>
+  <si>
+    <t>1755015ROADH03</t>
+  </si>
+  <si>
+    <t>175/50R15</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>1755515ROADH12</t>
+  </si>
+  <si>
+    <t>175/55R15</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>1756013MIRAMR166</t>
+  </si>
+  <si>
+    <t>175/60R13</t>
+  </si>
+  <si>
+    <t>1756014MIRAMR16</t>
+  </si>
+  <si>
+    <t>175/60R14</t>
+  </si>
+  <si>
+    <t>1756015APT</t>
+  </si>
+  <si>
+    <t>175/60R15</t>
+  </si>
+  <si>
+    <t>APTANY</t>
+  </si>
+  <si>
+    <t>RP203</t>
+  </si>
+  <si>
+    <t>1756514APTA108</t>
+  </si>
+  <si>
+    <t>175/65R14C</t>
+  </si>
+  <si>
+    <t>RL108</t>
+  </si>
+  <si>
+    <t>1756514APT</t>
+  </si>
+  <si>
+    <t>175/65R14</t>
+  </si>
+  <si>
+    <t>1756514MIRAMR166</t>
+  </si>
+  <si>
+    <t>1756515KUSTRADI</t>
+  </si>
+  <si>
+    <t>175/65R15</t>
+  </si>
+  <si>
+    <t>KUSTONE</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>1757013MIRAMR16</t>
+  </si>
+  <si>
+    <t>175/70R13</t>
+  </si>
+  <si>
+    <t>1757013ROADH11</t>
+  </si>
+  <si>
+    <t>1757014ROADRA63</t>
+  </si>
+  <si>
+    <t>175/70R14</t>
+  </si>
+  <si>
+    <t>ROADCRUZA</t>
+  </si>
+  <si>
+    <t>RA630</t>
+  </si>
+  <si>
+    <t>1757014MIRA200</t>
+  </si>
+  <si>
+    <t>175/70R14C</t>
+  </si>
+  <si>
+    <t>MR200</t>
+  </si>
+  <si>
+    <t>1758014SUMAALLTE</t>
+  </si>
+  <si>
+    <t>175/80R14</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>17514MIRA2008</t>
+  </si>
+  <si>
+    <t>175R14C</t>
+  </si>
+  <si>
+    <t>1854515WINDF</t>
+  </si>
+  <si>
+    <t>185/45R15</t>
+  </si>
+  <si>
+    <t>WINDOFRCE</t>
+  </si>
+  <si>
+    <t>CATCHFORS HP</t>
+  </si>
+  <si>
+    <t>1855514APT203</t>
+  </si>
+  <si>
+    <t>185/55R14</t>
+  </si>
+  <si>
+    <t>1855515APT203</t>
+  </si>
+  <si>
+    <t>185/55R15</t>
+  </si>
+  <si>
+    <t>1855515ROADH12</t>
+  </si>
+  <si>
+    <t>1855516ROADH12</t>
+  </si>
+  <si>
+    <t>185/55R16</t>
+  </si>
+  <si>
+    <t>1856013GRENCOLO</t>
+  </si>
+  <si>
+    <t>185/60R13</t>
+  </si>
+  <si>
+    <t>COLO H01</t>
+  </si>
+  <si>
+    <t>1856014GRENCOLO</t>
+  </si>
+  <si>
+    <t>185/60R14</t>
+  </si>
+  <si>
+    <t>COLO H02</t>
+  </si>
+  <si>
+    <t>1856015QUIETQ7K</t>
+  </si>
+  <si>
+    <t>185/60R15</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>1856015MIRAMR16</t>
+  </si>
+  <si>
+    <t>1856514GRENCOLO</t>
+  </si>
+  <si>
+    <t>185/65R14</t>
+  </si>
+  <si>
+    <t>1856514ROADH11</t>
+  </si>
+  <si>
+    <t>1856515BEARBW36</t>
+  </si>
+  <si>
+    <t>185/65R15</t>
+  </si>
+  <si>
+    <t>BEARWAY</t>
+  </si>
+  <si>
+    <t>BW366</t>
+  </si>
+  <si>
+    <t>1856515ROADH1292</t>
+  </si>
+  <si>
+    <t>1856515APOLLO</t>
+  </si>
+  <si>
+    <t>APOLLO</t>
+  </si>
+  <si>
+    <t>ALNAC 4G</t>
+  </si>
+  <si>
+    <t>1856515DOUBDK768</t>
+  </si>
+  <si>
+    <t>185/65R15C</t>
+  </si>
+  <si>
+    <t>DOUBLE KING</t>
+  </si>
+  <si>
+    <t>DK768</t>
+  </si>
+  <si>
+    <t>1857013MIRAMR16</t>
+  </si>
+  <si>
+    <t>185/70R13</t>
+  </si>
+  <si>
+    <t>1857014ROTARONE</t>
+  </si>
+  <si>
+    <t>185/70R14</t>
+  </si>
+  <si>
+    <t>R-0NE</t>
+  </si>
+  <si>
+    <t>18514MIRAMR30</t>
+  </si>
+  <si>
+    <t>185R14C</t>
+  </si>
+  <si>
+    <t>MR300</t>
+  </si>
+  <si>
+    <t>1954017COMF700</t>
+  </si>
+  <si>
+    <t>195/40ZR17</t>
+  </si>
+  <si>
+    <t>COMFORSER</t>
+  </si>
+  <si>
+    <t>CF700</t>
+  </si>
+  <si>
+    <t>1954017OTIONU11R</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>1954515ROADH12</t>
+  </si>
+  <si>
+    <t>195/45R15</t>
+  </si>
+  <si>
+    <t>1954516ROADH12</t>
+  </si>
+  <si>
+    <t>195/45R16</t>
+  </si>
+  <si>
+    <t>1955015ROADH12</t>
+  </si>
+  <si>
+    <t>195/50R15</t>
+  </si>
+  <si>
+    <t>1955015APT</t>
+  </si>
+  <si>
+    <t>1955015SUMADR1</t>
+  </si>
+  <si>
+    <t>MAX SPEED R1</t>
+  </si>
+  <si>
+    <t>1955015SUMADRIFTX</t>
+  </si>
+  <si>
+    <t>MAX DRIFTING X</t>
+  </si>
+  <si>
+    <t>1955016ROADH12</t>
+  </si>
+  <si>
+    <t>195/50R16</t>
+  </si>
+  <si>
+    <t>1955515ROADH12</t>
+  </si>
+  <si>
+    <t>195/55R15</t>
+  </si>
+  <si>
+    <t>1955515SUMADRIFTX</t>
+  </si>
+  <si>
+    <t>1955515SUMADR1</t>
+  </si>
+  <si>
+    <t>1955515APOLLO</t>
+  </si>
+  <si>
+    <t>1955516ROADH1291V</t>
+  </si>
+  <si>
+    <t>195/55R16</t>
+  </si>
+  <si>
+    <t>1955516MIRAMR166</t>
+  </si>
+  <si>
+    <t>1956014ROADH11</t>
+  </si>
+  <si>
+    <t>195/60R14</t>
+  </si>
+  <si>
+    <t>1956015APTRP203</t>
+  </si>
+  <si>
+    <t>195/60R15</t>
+  </si>
+  <si>
+    <t>1956015ROADH12</t>
+  </si>
+  <si>
+    <t>1956015PIRELLI</t>
+  </si>
+  <si>
+    <t>PIRELLI</t>
+  </si>
+  <si>
+    <t>CINTURATO P1</t>
+  </si>
+  <si>
+    <t>1956016GRENLMA</t>
+  </si>
+  <si>
+    <t>195/60R16C</t>
+  </si>
+  <si>
+    <t>LMAX 9</t>
+  </si>
+  <si>
+    <t>1956016ROADH12</t>
   </si>
   <si>
     <t xml:space="preserve">195/60R16 </t>
   </si>
   <si>
-    <t xml:space="preserve">1956515APOLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/65R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M UNITED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956515BEARBW36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956515ROADH12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956515PIRELLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1 PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956516CTOYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/65R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOYO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957014ROTARONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/70R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957015COMF350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/70R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957516CPIRELLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/75R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957516CCONTINEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTINENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANCO 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957516HD737H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195015DAT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195/80R15</t>
+    <t>1956515APOLLO</t>
+  </si>
+  <si>
+    <t>195/65R15</t>
+  </si>
+  <si>
+    <t>M UNITED</t>
+  </si>
+  <si>
+    <t>1956515BEARBW36</t>
+  </si>
+  <si>
+    <t>1956515ROADH12V</t>
+  </si>
+  <si>
+    <t>1956515PIRELLI</t>
+  </si>
+  <si>
+    <t>P1 PLUS</t>
+  </si>
+  <si>
+    <t>1956516CTOYO</t>
+  </si>
+  <si>
+    <t>195/65R16C</t>
+  </si>
+  <si>
+    <t>TOYO</t>
+  </si>
+  <si>
+    <t>NEVA</t>
+  </si>
+  <si>
+    <t>1957014ROTARONE</t>
+  </si>
+  <si>
+    <t>195/70R14</t>
+  </si>
+  <si>
+    <t>1957015COMF350</t>
+  </si>
+  <si>
+    <t>195/70R15C</t>
+  </si>
+  <si>
+    <t>CF350</t>
+  </si>
+  <si>
+    <t>1957516CPIRELLI</t>
+  </si>
+  <si>
+    <t>195/75R16C</t>
+  </si>
+  <si>
+    <t>CHRONO</t>
+  </si>
+  <si>
+    <t>1957516CCONTINEN</t>
+  </si>
+  <si>
+    <t>CONTINENTAL</t>
+  </si>
+  <si>
+    <t>VANCO 100</t>
+  </si>
+  <si>
+    <t>1957516HD737H</t>
+  </si>
+  <si>
+    <t>HD737</t>
+  </si>
+  <si>
+    <t>195015DAT20</t>
+  </si>
+  <si>
+    <t>195/80R15</t>
   </si>
   <si>
     <t xml:space="preserve">DUNLOP </t>
   </si>
   <si>
-    <t xml:space="preserve">AT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19514KINGG326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KINGBOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19515MIRAMR30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19515SUMAALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2054017ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/40ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2054516ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/45R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2054517ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/45ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055015ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/50R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055016ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/50ZR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055017ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/50ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055515COMF510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/55R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055516QUIETQ7K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/55R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUIET Q7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055516GRENLCONF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCONFORT 68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055516GOODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOODYEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAGLE SPORT 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055516RYDAR02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYDANZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03 RUNFLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055516APOLLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2055517ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/55ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056015COMF510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/60R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056016CONTINENTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/60R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056016APTA006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU006 AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056016DK569D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056515ROTARONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/65R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056515SUMAALLTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056516ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/65R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2056516KINGG326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/65R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057015STMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/70R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUNSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057015APT203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057015SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057015MIRAMR30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/70R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057016ZE914TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZE914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057516CPIRELLI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205/75R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2057516MIRAMR30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2153518ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/35ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154017ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/40R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154018ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/40ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154516ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/45ZR16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154517ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/45ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154517SUMADRIFTX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154518ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/45ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2154518HANKV12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HANKOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTUS V12 EVO 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155017HANKP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/50R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VENTUS PRIME 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155018ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/50R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155017ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/50ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155516HANKGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KINERGY GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155516ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155518MAX050TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPORT MAX 050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155517ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2155518KINGG866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/55ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156016HANKOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KINERGY ECO 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156016COMFCF51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156016COMFCF35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156017APTARU02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156017COMFCF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156017GOODY</t>
+    <t>AT20</t>
+  </si>
+  <si>
+    <t>19514KINGG326</t>
+  </si>
+  <si>
+    <t>195R14C</t>
+  </si>
+  <si>
+    <t>KINGBOSS</t>
+  </si>
+  <si>
+    <t>G326</t>
+  </si>
+  <si>
+    <t>19515MIRAMR30</t>
+  </si>
+  <si>
+    <t>195R15C</t>
+  </si>
+  <si>
+    <t>19515SUMAALL</t>
+  </si>
+  <si>
+    <t>2054017ROADU11</t>
+  </si>
+  <si>
+    <t>205/40ZR17</t>
+  </si>
+  <si>
+    <t>2054516ROADH12</t>
+  </si>
+  <si>
+    <t>205/45R16</t>
+  </si>
+  <si>
+    <t>2054517ROADU11</t>
+  </si>
+  <si>
+    <t>205/45ZR17</t>
+  </si>
+  <si>
+    <t>2055015ROADH12</t>
+  </si>
+  <si>
+    <t>205/50R15</t>
+  </si>
+  <si>
+    <t>2055016ROADU11</t>
+  </si>
+  <si>
+    <t>205/50ZR16</t>
+  </si>
+  <si>
+    <t>2055017ROADU11</t>
+  </si>
+  <si>
+    <t>205/50ZR17</t>
+  </si>
+  <si>
+    <t>2055515COMF510</t>
+  </si>
+  <si>
+    <t>205/55R15</t>
+  </si>
+  <si>
+    <t>CF510</t>
+  </si>
+  <si>
+    <t>2055516QUIETQ7K</t>
+  </si>
+  <si>
+    <t>205/55R16</t>
+  </si>
+  <si>
+    <t>QUIET Q7</t>
+  </si>
+  <si>
+    <t>2055516GRENLCONF</t>
+  </si>
+  <si>
+    <t>LCONFORT 68</t>
+  </si>
+  <si>
+    <t>2055516GOODY</t>
+  </si>
+  <si>
+    <t>GOODYEAR</t>
+  </si>
+  <si>
+    <t>EAGLE SPORT 2</t>
+  </si>
+  <si>
+    <t>2055516RYDAR02</t>
+  </si>
+  <si>
+    <t>RYDANZ</t>
+  </si>
+  <si>
+    <t>R03 RUNFLAT</t>
+  </si>
+  <si>
+    <t>2055516APOLLO</t>
+  </si>
+  <si>
+    <t>2055517ROADU11</t>
+  </si>
+  <si>
+    <t>205/55ZR17</t>
+  </si>
+  <si>
+    <t>2056015COMF510</t>
+  </si>
+  <si>
+    <t>205/60R15</t>
+  </si>
+  <si>
+    <t>2056016CONTINENTAL</t>
+  </si>
+  <si>
+    <t>205/60R16</t>
+  </si>
+  <si>
+    <t>2056016APTA006</t>
+  </si>
+  <si>
+    <t>RU006 AT</t>
+  </si>
+  <si>
+    <t>2056016DK569D</t>
+  </si>
+  <si>
+    <t>DK569</t>
+  </si>
+  <si>
+    <t>2056515ROTARONE</t>
+  </si>
+  <si>
+    <t>205/65R15</t>
+  </si>
+  <si>
+    <t>2056515SUMAALLTE</t>
+  </si>
+  <si>
+    <t>2056516ROADH12</t>
+  </si>
+  <si>
+    <t>205/65R16</t>
+  </si>
+  <si>
+    <t>2056516KINGG326</t>
+  </si>
+  <si>
+    <t>205/65R16C</t>
+  </si>
+  <si>
+    <t>2057015STMT</t>
+  </si>
+  <si>
+    <t>205/70R15</t>
+  </si>
+  <si>
+    <t>SUNSET</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>2057015APT203</t>
+  </si>
+  <si>
+    <t>2057015SUMAAIN</t>
+  </si>
+  <si>
+    <t>2057015MIRAMR30</t>
+  </si>
+  <si>
+    <t>205/70R15C</t>
+  </si>
+  <si>
+    <t>2057016ZE914TH</t>
+  </si>
+  <si>
+    <t>205/70R16</t>
+  </si>
+  <si>
+    <t>FALKEN</t>
+  </si>
+  <si>
+    <t>ZE914</t>
+  </si>
+  <si>
+    <t>2057516CPIRELLI</t>
+  </si>
+  <si>
+    <t>205/75R16C</t>
+  </si>
+  <si>
+    <t>2057516MIRAMR30</t>
+  </si>
+  <si>
+    <t>2153518ROADU11</t>
+  </si>
+  <si>
+    <t>215/35ZR18</t>
+  </si>
+  <si>
+    <t>2154017ROADU11</t>
+  </si>
+  <si>
+    <t>215/40R17</t>
+  </si>
+  <si>
+    <t>2154018ROADU11</t>
+  </si>
+  <si>
+    <t>215/40ZR18</t>
+  </si>
+  <si>
+    <t>2154516ROADU11</t>
+  </si>
+  <si>
+    <t>215/45ZR16</t>
+  </si>
+  <si>
+    <t>2154517ROADU11</t>
+  </si>
+  <si>
+    <t>215/45ZR17</t>
+  </si>
+  <si>
+    <t>2154517SUMADRIFTX</t>
+  </si>
+  <si>
+    <t>2154518ROADU11</t>
+  </si>
+  <si>
+    <t>215/45ZR18</t>
+  </si>
+  <si>
+    <t>2154518HANKV12</t>
+  </si>
+  <si>
+    <t>HANKOOK</t>
+  </si>
+  <si>
+    <t>VENTUS V12 EVO 2</t>
+  </si>
+  <si>
+    <t>2155017HANKP4</t>
+  </si>
+  <si>
+    <t>215/50R17</t>
+  </si>
+  <si>
+    <t>VENTUS PRIME 4</t>
+  </si>
+  <si>
+    <t>2155018ROADU01</t>
+  </si>
+  <si>
+    <t>215/50R18</t>
+  </si>
+  <si>
+    <t>SU01</t>
+  </si>
+  <si>
+    <t>2155017ROADU11</t>
+  </si>
+  <si>
+    <t>215/50ZR17</t>
+  </si>
+  <si>
+    <t>2155516HANKGT</t>
+  </si>
+  <si>
+    <t>215/55R16</t>
+  </si>
+  <si>
+    <t>KINERGY GT</t>
+  </si>
+  <si>
+    <t>2155516ROADU11</t>
+  </si>
+  <si>
+    <t>2155518MAX050TH</t>
+  </si>
+  <si>
+    <t>215/55R18</t>
+  </si>
+  <si>
+    <t>SPORT MAX 050</t>
+  </si>
+  <si>
+    <t>2155517ROADU11</t>
+  </si>
+  <si>
+    <t>215/55ZR17</t>
+  </si>
+  <si>
+    <t>2155518KINGG866</t>
+  </si>
+  <si>
+    <t>215/55ZR18</t>
+  </si>
+  <si>
+    <t>G866</t>
+  </si>
+  <si>
+    <t>2156016HANKOOK</t>
+  </si>
+  <si>
+    <t>215/60R16</t>
+  </si>
+  <si>
+    <t>KINERGY ECO 2</t>
+  </si>
+  <si>
+    <t>2156016COMFCF51</t>
+  </si>
+  <si>
+    <t>2156016COMFCF35</t>
+  </si>
+  <si>
+    <t>215/60R16C</t>
+  </si>
+  <si>
+    <t>2156017APTARU02</t>
+  </si>
+  <si>
+    <t>215/60R17</t>
+  </si>
+  <si>
+    <t>RU25</t>
+  </si>
+  <si>
+    <t>2156017COMFCF11</t>
+  </si>
+  <si>
+    <t>CF1100</t>
+  </si>
+  <si>
+    <t>2156017GOODY</t>
   </si>
   <si>
     <t xml:space="preserve">215/60R17 </t>
   </si>
   <si>
-    <t xml:space="preserve">EFFICIENTGRIP SUV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156017COMFCF35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/60R17C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156516ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/65R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156516ROADC02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/65R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2156516CONTI100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157015MIRAMR30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/70R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157016HANKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157016RYDAR09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPTOR R09 AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157016RYDARALE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RALEIGH R06 HT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157016ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157016LMAX9G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/70R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157514KETEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/75R14C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157514KETE755</t>
+    <t>EFFICIENTGRIP SUV</t>
+  </si>
+  <si>
+    <t>2156017COMFCF35</t>
+  </si>
+  <si>
+    <t>215/60R17C</t>
+  </si>
+  <si>
+    <t>2156516ROADH12</t>
+  </si>
+  <si>
+    <t>215/65R16</t>
+  </si>
+  <si>
+    <t>2156516ROADC02</t>
+  </si>
+  <si>
+    <t>215/65R16C</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>2156516CONTI100</t>
+  </si>
+  <si>
+    <t>2157015MIRAMR30</t>
+  </si>
+  <si>
+    <t>215/70R15C</t>
+  </si>
+  <si>
+    <t>2157016HANKHP2</t>
+  </si>
+  <si>
+    <t>215/70R16</t>
+  </si>
+  <si>
+    <t>HP2</t>
+  </si>
+  <si>
+    <t>2157016RYDAR09</t>
+  </si>
+  <si>
+    <t>RAPTOR R09 AT</t>
+  </si>
+  <si>
+    <t>2157016RYDARALE</t>
+  </si>
+  <si>
+    <t>RALEIGH R06 HT</t>
+  </si>
+  <si>
+    <t>2157016ROADT01</t>
+  </si>
+  <si>
+    <t>HT01</t>
+  </si>
+  <si>
+    <t>2157016LMAX9G</t>
+  </si>
+  <si>
+    <t>215/70R16C</t>
+  </si>
+  <si>
+    <t>2157514KETEST</t>
+  </si>
+  <si>
+    <t>215/75R14C</t>
+  </si>
+  <si>
+    <t>LH STR</t>
+  </si>
+  <si>
+    <t>2157514KETE755</t>
   </si>
   <si>
     <t xml:space="preserve">215/75R14 </t>
   </si>
   <si>
-    <t xml:space="preserve">2157515MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/75R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR AT172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157516APTA06Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/75R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2157516CONTI100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21575175CENT03S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/75R17.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENTARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD703S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21575175CENT709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD709 TRAC-ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2158016PIRELLIMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215/80R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCORPION MTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254019ROADRXMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/40R19</t>
+    <t>2157515MR</t>
+  </si>
+  <si>
+    <t>215/75R15</t>
+  </si>
+  <si>
+    <t>MR AT172</t>
+  </si>
+  <si>
+    <t>2157516APTA06Y</t>
+  </si>
+  <si>
+    <t>215/75R16C</t>
+  </si>
+  <si>
+    <t>RL106</t>
+  </si>
+  <si>
+    <t>2157516CONTI100</t>
+  </si>
+  <si>
+    <t>21575175CENT03S</t>
+  </si>
+  <si>
+    <t>215/75R17.5</t>
+  </si>
+  <si>
+    <t>CENTARA</t>
+  </si>
+  <si>
+    <t>SD703S</t>
+  </si>
+  <si>
+    <t>21575175CENT709</t>
+  </si>
+  <si>
+    <t>SD709 TRAC-ON</t>
+  </si>
+  <si>
+    <t>2158016PIRELLIMT</t>
+  </si>
+  <si>
+    <t>215/80R16</t>
+  </si>
+  <si>
+    <t>SCORPION MTR</t>
+  </si>
+  <si>
+    <t>2254019ROADRXMO</t>
+  </si>
+  <si>
+    <t>225/40R19</t>
   </si>
   <si>
     <t xml:space="preserve">U11  </t>
   </si>
   <si>
-    <t xml:space="preserve">2254019ROADRXRFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U11 RUNFLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254018ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/40ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254019HANKV12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/40ZR19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254018ROADRFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/40ZRF18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254517RYDAR02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R02 RUNFLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254518ROADRFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45ZRF18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254517APT301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45ZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254517ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254518ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2254519ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/45R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255017ROADU11RFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/50R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255018BRID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/50R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRIDGESTONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALENZA 001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255018APTA02Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNFLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255017ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/50RZR17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255517APTA301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/55R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255517PIRP7RFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTURATO P7 RUNFLAT</t>
+    <t>2254019ROADRXRFT</t>
+  </si>
+  <si>
+    <t>U11 RUNFLAT</t>
+  </si>
+  <si>
+    <t>2254018ROADU11</t>
+  </si>
+  <si>
+    <t>225/40ZR18</t>
+  </si>
+  <si>
+    <t>2254019HANKV12</t>
+  </si>
+  <si>
+    <t>225/40ZR19</t>
+  </si>
+  <si>
+    <t>2254018ROADRFT</t>
+  </si>
+  <si>
+    <t>225/40ZRF18</t>
+  </si>
+  <si>
+    <t>2254517RYDAR02</t>
+  </si>
+  <si>
+    <t>225/45R17</t>
+  </si>
+  <si>
+    <t>R02 RUNFLAT</t>
+  </si>
+  <si>
+    <t>2254518ROADRFT</t>
+  </si>
+  <si>
+    <t>225/45ZRF18</t>
+  </si>
+  <si>
+    <t>2254517APT301</t>
+  </si>
+  <si>
+    <t>225/45ZR17</t>
+  </si>
+  <si>
+    <t>RA301</t>
+  </si>
+  <si>
+    <t>2254517ROADU11</t>
+  </si>
+  <si>
+    <t>2254518ROADU11</t>
+  </si>
+  <si>
+    <t>225/45ZR18</t>
+  </si>
+  <si>
+    <t>2254519ROADU01</t>
+  </si>
+  <si>
+    <t>225/45R19</t>
+  </si>
+  <si>
+    <t>2255017ROADU11RFT</t>
+  </si>
+  <si>
+    <t>225/50R17</t>
+  </si>
+  <si>
+    <t>2255018BRID</t>
+  </si>
+  <si>
+    <t>225/50R18</t>
+  </si>
+  <si>
+    <t>BRIDGESTONE</t>
+  </si>
+  <si>
+    <t>ALENZA 001</t>
+  </si>
+  <si>
+    <t>2255018APTA02Y</t>
+  </si>
+  <si>
+    <t>RUNFLAT</t>
+  </si>
+  <si>
+    <t>2255017ROADU11</t>
+  </si>
+  <si>
+    <t>225/50RZR17</t>
+  </si>
+  <si>
+    <t>2255517APTA301</t>
+  </si>
+  <si>
+    <t>225/55R17</t>
+  </si>
+  <si>
+    <t>2255517PIRP7RFT</t>
+  </si>
+  <si>
+    <t>CINTURATO P7 RUNFLAT</t>
   </si>
   <si>
     <t xml:space="preserve">2255517PIRP7 </t>
   </si>
   <si>
-    <t xml:space="preserve">CINTURATO P7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255518ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/55R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255518COMF100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2255519ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/55R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256017GRENMAGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/60R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGA AT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256017APT101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256017ROADT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256017KMHP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUMHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256018PIRSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/60R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCORPION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256018ROADRXQU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256516APTARL10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/65R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256517APT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/65R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256517ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256517KMHP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUGEN HP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256517ROADT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2256517HANKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257015MR300M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/70R15C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257016KUSTFREE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257016AUTOTC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOGREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257017DAT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/70R17C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257017KMAT52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257516GODRIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/75R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOODRIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2257516GRELMAX9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225/75R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2354018ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/40ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2354518ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/45R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355019ROADU02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/50R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355518ROADT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/55R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355519HANKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/55R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355519ROAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355520ROAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/55R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2355520GOODY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSURANCE MAX LIFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356016ROADH12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/60R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356016COMF000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356017APTA25Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/60R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356018ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/60R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356018KMHP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356018HKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356018HKGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356516COMF350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/65R16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356517ROADT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/65R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356517ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2356517KMHP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2357016ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2357016KAT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2357016SUMAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2357515SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/75R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23575175CENT703S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235/75R17.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2453518ROADU11RF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/35ZRZ18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454018ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/40ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454019ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/40ZR19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454019RYDAROAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/40ZRF19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454020ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/40R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454518ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/45ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454518ROADU11RFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/45ZRF18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454519ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/45ZR19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2454520HKV12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/45ZR20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2455018PRPZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/50ZR18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2456517HKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/65R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2456517ROADT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2456517ROADT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457016MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457016SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457017CHAOHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/70R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAOYANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SU318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457516ROADT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/75R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457516MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457516SUMAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457516DELMANDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555019ROADT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/50R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555019HKHP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555020ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/50R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555020KMHP71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555519ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/55R19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2556017PRSCVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/60R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCORPION VERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2556018ROADU01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/60R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2557016ROADT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2557016SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2655020PRSTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/50R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656018SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/60R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656018SUMAMAXRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656018DUNLT20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656018AT25H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656517SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/65R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656517COMFCF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656517WPAT3WTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656517ROADT21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2656518SUMAALLTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/65R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657016BR684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/70R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HT684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657016SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657017COMFCF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/70R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657017SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657017ROADT03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657516SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265/75R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2657516HKAT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2754020ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/40R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2754520ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/45R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2755520SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/55R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2755520UESTAT21R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2756020COMFCF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/60R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2756518SUMAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/65R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2757017SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">275/70R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2856518SUMAAL121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285/65R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2857017SUMAAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285/70R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2857516RYDARAPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285/75R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPTOR R09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2954020GREETX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">295/40R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREENTRAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUEST X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3153520ROADU11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315/35ZR20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3157017SUMAAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">315/70R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31105015SUMAAWLT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/1050R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50012DIAMDM346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAMAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50012LONG801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500R12C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZT801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55012BCTBL808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55013BRIGLRP198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">550R13C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRP198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55013LONGZT80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65016LONG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">650R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZT201 DIRECCIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70016LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISTONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75016LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750R16</t>
+    <t>CINTURATO P7</t>
+  </si>
+  <si>
+    <t>2255518ROADU01</t>
+  </si>
+  <si>
+    <t>225/55R18</t>
+  </si>
+  <si>
+    <t>2255518COMF100</t>
+  </si>
+  <si>
+    <t>2255519ROADU01</t>
+  </si>
+  <si>
+    <t>225/55R19</t>
+  </si>
+  <si>
+    <t>2256017GRENMAGA</t>
+  </si>
+  <si>
+    <t>225/60R17</t>
+  </si>
+  <si>
+    <t>MAGA AT2</t>
+  </si>
+  <si>
+    <t>2256017APT101</t>
+  </si>
+  <si>
+    <t>RU101</t>
+  </si>
+  <si>
+    <t>2256017ROADT02</t>
+  </si>
+  <si>
+    <t>SU02</t>
+  </si>
+  <si>
+    <t>2256017KMHP71</t>
+  </si>
+  <si>
+    <t>KUMHO</t>
+  </si>
+  <si>
+    <t>HP71</t>
+  </si>
+  <si>
+    <t>2256018PIRSC</t>
+  </si>
+  <si>
+    <t>225/60R18</t>
+  </si>
+  <si>
+    <t>SCORPION</t>
+  </si>
+  <si>
+    <t>2256018ROADRXQU</t>
+  </si>
+  <si>
+    <t>HT02</t>
+  </si>
+  <si>
+    <t>2256516APTARL10</t>
+  </si>
+  <si>
+    <t>225/65R16C</t>
+  </si>
+  <si>
+    <t>2256517APT</t>
+  </si>
+  <si>
+    <t>225/65R17</t>
+  </si>
+  <si>
+    <t>2256517ROADT01</t>
+  </si>
+  <si>
+    <t>2256517KMHP71</t>
+  </si>
+  <si>
+    <t>CRUGEN HP71</t>
+  </si>
+  <si>
+    <t>2256517ROADT21</t>
+  </si>
+  <si>
+    <t>AT21</t>
+  </si>
+  <si>
+    <t>2256517HANKHP2</t>
+  </si>
+  <si>
+    <t>2257015MR300M</t>
+  </si>
+  <si>
+    <t>225/70R15C</t>
+  </si>
+  <si>
+    <t>2257016KUSTFREE</t>
+  </si>
+  <si>
+    <t>225/70R16</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>2257016AUTOTC9</t>
+  </si>
+  <si>
+    <t>AUTOGREEN</t>
+  </si>
+  <si>
+    <t>2257017DAT20</t>
+  </si>
+  <si>
+    <t>225/70R17C</t>
+  </si>
+  <si>
+    <t>2257017KMAT52</t>
+  </si>
+  <si>
+    <t>AT52</t>
+  </si>
+  <si>
+    <t>2257516GODRIDE</t>
+  </si>
+  <si>
+    <t>225/75R16</t>
+  </si>
+  <si>
+    <t>GOODRIDE</t>
+  </si>
+  <si>
+    <t>SL369</t>
+  </si>
+  <si>
+    <t>2257516GRELMAX9</t>
+  </si>
+  <si>
+    <t>225/75R16C</t>
+  </si>
+  <si>
+    <t>2354018ROADU11</t>
+  </si>
+  <si>
+    <t>235/40ZR18</t>
+  </si>
+  <si>
+    <t>2354518ROADU11</t>
+  </si>
+  <si>
+    <t>235/45R18</t>
+  </si>
+  <si>
+    <t>2355019ROADU02</t>
+  </si>
+  <si>
+    <t>235/50R19</t>
+  </si>
+  <si>
+    <t>2355518ROADT02</t>
+  </si>
+  <si>
+    <t>235/55R18</t>
+  </si>
+  <si>
+    <t>2355519HANKHP2</t>
+  </si>
+  <si>
+    <t>235/55R19</t>
+  </si>
+  <si>
+    <t>2355519ROAD</t>
+  </si>
+  <si>
+    <t>2355520ROAD</t>
+  </si>
+  <si>
+    <t>235/55R20</t>
+  </si>
+  <si>
+    <t>2355520GOODY</t>
+  </si>
+  <si>
+    <t>ASSURANCE MAX LIFE</t>
+  </si>
+  <si>
+    <t>2356016ROADH12</t>
+  </si>
+  <si>
+    <t>235/60R16</t>
+  </si>
+  <si>
+    <t>2356016COMF000</t>
+  </si>
+  <si>
+    <t>CF1000</t>
+  </si>
+  <si>
+    <t>2356017APTA25Y</t>
+  </si>
+  <si>
+    <t>235/60R17</t>
+  </si>
+  <si>
+    <t>2356018ROADT01</t>
+  </si>
+  <si>
+    <t>235/60R18</t>
+  </si>
+  <si>
+    <t>2356018KMHP71</t>
+  </si>
+  <si>
+    <t>2356018HKHP2</t>
+  </si>
+  <si>
+    <t>2356018HKGT</t>
+  </si>
+  <si>
+    <t>2356516COMF350</t>
+  </si>
+  <si>
+    <t>235/65R16C</t>
+  </si>
+  <si>
+    <t>2356517ROADT21</t>
+  </si>
+  <si>
+    <t>235/65R17</t>
+  </si>
+  <si>
+    <t>2356517ROADT01</t>
+  </si>
+  <si>
+    <t>2356517KMHP71</t>
+  </si>
+  <si>
+    <t>2357016ROADT01</t>
+  </si>
+  <si>
+    <t>235/70R16</t>
+  </si>
+  <si>
+    <t>2357016KAT2</t>
+  </si>
+  <si>
+    <t>AT2</t>
+  </si>
+  <si>
+    <t>2357016SUMAAT</t>
+  </si>
+  <si>
+    <t>2357515SUMAAIN</t>
+  </si>
+  <si>
+    <t>235/75R15</t>
+  </si>
+  <si>
+    <t>23575175CENT703S</t>
+  </si>
+  <si>
+    <t>235/75R17.5</t>
+  </si>
+  <si>
+    <t>2453518ROADU11RF</t>
+  </si>
+  <si>
+    <t>245/35ZRZ18</t>
+  </si>
+  <si>
+    <t>2454018ROADU11</t>
+  </si>
+  <si>
+    <t>245/40ZR18</t>
+  </si>
+  <si>
+    <t>2454019ROADU11</t>
+  </si>
+  <si>
+    <t>245/40ZR19</t>
+  </si>
+  <si>
+    <t>2454019RYDAROAD</t>
+  </si>
+  <si>
+    <t>245/40ZRF19</t>
+  </si>
+  <si>
+    <t>2454020ROADU11</t>
+  </si>
+  <si>
+    <t>245/40R20</t>
+  </si>
+  <si>
+    <t>2454518ROADU11</t>
+  </si>
+  <si>
+    <t>245/45ZR18</t>
+  </si>
+  <si>
+    <t>2454518ROADU11RFT</t>
+  </si>
+  <si>
+    <t>245/45ZRF18</t>
+  </si>
+  <si>
+    <t>2454519ROADU11</t>
+  </si>
+  <si>
+    <t>245/45ZR19</t>
+  </si>
+  <si>
+    <t>2454520HKV12</t>
+  </si>
+  <si>
+    <t>245/45ZR20</t>
+  </si>
+  <si>
+    <t>2455018PRPZERO</t>
+  </si>
+  <si>
+    <t>245/50ZR18</t>
+  </si>
+  <si>
+    <t>PZERO</t>
+  </si>
+  <si>
+    <t>2456517HKHP2</t>
+  </si>
+  <si>
+    <t>245/65R17</t>
+  </si>
+  <si>
+    <t>2456517ROADT01</t>
+  </si>
+  <si>
+    <t>2456517ROADT21</t>
+  </si>
+  <si>
+    <t>2457016MR</t>
+  </si>
+  <si>
+    <t>245/70R16</t>
+  </si>
+  <si>
+    <t>AT172</t>
+  </si>
+  <si>
+    <t>2457016SUMAAIN</t>
+  </si>
+  <si>
+    <t>2457017CHAOHT</t>
+  </si>
+  <si>
+    <t>245/70R17</t>
+  </si>
+  <si>
+    <t>CHAOYANG</t>
+  </si>
+  <si>
+    <t>SU318</t>
+  </si>
+  <si>
+    <t>2457516ROADT21</t>
+  </si>
+  <si>
+    <t>245/75R16</t>
+  </si>
+  <si>
+    <t>2457516MR</t>
+  </si>
+  <si>
+    <t>2457516SUMAAT</t>
+  </si>
+  <si>
+    <t>2457516DELMANDE</t>
+  </si>
+  <si>
+    <t>DELMAX</t>
+  </si>
+  <si>
+    <t>2555019ROADT02</t>
+  </si>
+  <si>
+    <t>255/50R19</t>
+  </si>
+  <si>
+    <t>2555019HKHP2</t>
+  </si>
+  <si>
+    <t>2555020ROADU01</t>
+  </si>
+  <si>
+    <t>255/50R20</t>
+  </si>
+  <si>
+    <t>2555020KMHP71</t>
+  </si>
+  <si>
+    <t>2555519ROADU01</t>
+  </si>
+  <si>
+    <t>255/55R19</t>
+  </si>
+  <si>
+    <t>2556017PRSCVER</t>
+  </si>
+  <si>
+    <t>255/60R17</t>
+  </si>
+  <si>
+    <t>SCORPION VERDE</t>
+  </si>
+  <si>
+    <t>2556018ROADU01</t>
+  </si>
+  <si>
+    <t>255/60R18</t>
+  </si>
+  <si>
+    <t>2557016ROADT02</t>
+  </si>
+  <si>
+    <t>255/70R16</t>
+  </si>
+  <si>
+    <t>AT02</t>
+  </si>
+  <si>
+    <t>2557016SUMAAIN</t>
+  </si>
+  <si>
+    <t>2655020PRSTR</t>
+  </si>
+  <si>
+    <t>265/50R20</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>2656018SUMAAIN</t>
+  </si>
+  <si>
+    <t>265/60R18</t>
+  </si>
+  <si>
+    <t>2656018SUMAMAXRA</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>2656018DUNLT20</t>
+  </si>
+  <si>
+    <t>2656018AT25H</t>
+  </si>
+  <si>
+    <t>AT25</t>
+  </si>
+  <si>
+    <t>2656517SUMAAIN</t>
+  </si>
+  <si>
+    <t>265/65R17</t>
+  </si>
+  <si>
+    <t>2656517COMFCF11</t>
+  </si>
+  <si>
+    <t>2656517WPAT3WTH</t>
+  </si>
+  <si>
+    <t>AT3W</t>
+  </si>
+  <si>
+    <t>2656517ROADT21</t>
+  </si>
+  <si>
+    <t>2656518SUMAALLTE</t>
+  </si>
+  <si>
+    <t>265/65R18</t>
+  </si>
+  <si>
+    <t>2657016BR684</t>
+  </si>
+  <si>
+    <t>265/70R16</t>
+  </si>
+  <si>
+    <t>HT684</t>
+  </si>
+  <si>
+    <t>2657016SUMAAIN</t>
+  </si>
+  <si>
+    <t>2657017COMFCF11</t>
+  </si>
+  <si>
+    <t>265/70R17</t>
+  </si>
+  <si>
+    <t>2657017SUMAAIN</t>
+  </si>
+  <si>
+    <t>2657017ROADT03</t>
+  </si>
+  <si>
+    <t>AT03</t>
+  </si>
+  <si>
+    <t>2657516SUMAAIN</t>
+  </si>
+  <si>
+    <t>265/75R16</t>
+  </si>
+  <si>
+    <t>2657516HKAT2</t>
+  </si>
+  <si>
+    <t>2754020ROADU11</t>
+  </si>
+  <si>
+    <t>275/40R20</t>
+  </si>
+  <si>
+    <t>2754520ROADU11</t>
+  </si>
+  <si>
+    <t>275/45R20</t>
+  </si>
+  <si>
+    <t>2755520SUMAAIN</t>
+  </si>
+  <si>
+    <t>275/55R20</t>
+  </si>
+  <si>
+    <t>2755520UESTAT21R</t>
+  </si>
+  <si>
+    <t>2756020COMFCF11</t>
+  </si>
+  <si>
+    <t>275/60R20</t>
+  </si>
+  <si>
+    <t>2756518SUMAAT</t>
+  </si>
+  <si>
+    <t>275/65R18</t>
+  </si>
+  <si>
+    <t>2757017SUMAAIN</t>
+  </si>
+  <si>
+    <t>275/70R17</t>
+  </si>
+  <si>
+    <t>2856518SUMAAL121</t>
+  </si>
+  <si>
+    <t>285/65R18</t>
+  </si>
+  <si>
+    <t>2857017SUMAAIN</t>
+  </si>
+  <si>
+    <t>285/70R17</t>
+  </si>
+  <si>
+    <t>2857516RYDARAPT</t>
+  </si>
+  <si>
+    <t>285/75R16</t>
+  </si>
+  <si>
+    <t>RAPTOR R09</t>
+  </si>
+  <si>
+    <t>2954020GREETX</t>
+  </si>
+  <si>
+    <t>295/40R20</t>
+  </si>
+  <si>
+    <t>GREENTRAC</t>
+  </si>
+  <si>
+    <t>QUEST X</t>
+  </si>
+  <si>
+    <t>3153520ROADU11</t>
+  </si>
+  <si>
+    <t>315/35ZR20</t>
+  </si>
+  <si>
+    <t>3157017SUMAAT</t>
+  </si>
+  <si>
+    <t>315/70R17</t>
+  </si>
+  <si>
+    <t>31105015SUMAAWLT</t>
+  </si>
+  <si>
+    <t>31/1050R15</t>
+  </si>
+  <si>
+    <t>50012DIAMDM346</t>
+  </si>
+  <si>
+    <t>500R12</t>
+  </si>
+  <si>
+    <t>DIAMAX</t>
+  </si>
+  <si>
+    <t>50012LONG801</t>
+  </si>
+  <si>
+    <t>500R12C</t>
+  </si>
+  <si>
+    <t>ZT801</t>
+  </si>
+  <si>
+    <t>55012BCTBL808</t>
+  </si>
+  <si>
+    <t>550R12</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>55013BRIGLRP198</t>
+  </si>
+  <si>
+    <t>550R13C</t>
+  </si>
+  <si>
+    <t>LRP198</t>
+  </si>
+  <si>
+    <t>55013LONGZT80</t>
+  </si>
+  <si>
+    <t>65016LONG</t>
+  </si>
+  <si>
+    <t>650R16</t>
+  </si>
+  <si>
+    <t>DZT201 DIRECCIONAL</t>
+  </si>
+  <si>
+    <t>70016LUIS</t>
+  </si>
+  <si>
+    <t>700R16</t>
+  </si>
+  <si>
+    <t>LUISTONE</t>
+  </si>
+  <si>
+    <t>DK208</t>
+  </si>
+  <si>
+    <t>75016LUIS</t>
+  </si>
+  <si>
+    <t>750R16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2013,7 +2000,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -2043,91 +2030,46 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="203">
     <dxf>
@@ -4161,6 +4103,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -4219,60 +4162,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -4304,7 +4263,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -4328,7 +4287,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -4388,36 +4347,35 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M291"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="2" width="10.72"/>
+    <col min="1" max="1" width="28.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4447,11 +4405,11 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4464,11 +4422,11 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4481,11 +4439,11 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -4498,11 +4456,11 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4515,11 +4473,11 @@
       <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4532,11 +4490,11 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="9">
         <v>35000</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -4549,11 +4507,11 @@
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -4566,11 +4524,11 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4583,11 +4541,11 @@
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>34000</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -4600,11 +4558,11 @@
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -4617,12 +4575,12 @@
       <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>40000</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -4635,11 +4593,11 @@
       <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -4652,11 +4610,11 @@
       <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -4669,11 +4627,11 @@
       <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -4686,11 +4644,11 @@
       <c r="D16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -4703,11 +4661,11 @@
       <c r="D17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -4720,11 +4678,11 @@
       <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
@@ -4737,11 +4695,11 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
@@ -4754,11 +4712,11 @@
       <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
@@ -4771,11 +4729,11 @@
       <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
@@ -4788,11 +4746,11 @@
       <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
@@ -4803,11 +4761,11 @@
         <v>73</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>74</v>
       </c>
@@ -4820,11 +4778,11 @@
       <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>77</v>
       </c>
@@ -4837,11 +4795,11 @@
       <c r="D25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -4854,11 +4812,11 @@
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>82</v>
       </c>
@@ -4871,11 +4829,11 @@
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>84</v>
       </c>
@@ -4888,11 +4846,11 @@
       <c r="D28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="3" t="n">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="3">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
@@ -4905,11 +4863,11 @@
       <c r="D29" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>91</v>
       </c>
@@ -4922,11 +4880,11 @@
       <c r="D30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>93</v>
       </c>
@@ -4939,11 +4897,11 @@
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
@@ -4956,11 +4914,11 @@
       <c r="D32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="3">
         <v>48000</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -4973,11 +4931,11 @@
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>100</v>
       </c>
@@ -4990,11 +4948,11 @@
       <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>101</v>
       </c>
@@ -5007,11 +4965,11 @@
       <c r="D35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
@@ -5024,11 +4982,11 @@
       <c r="D36" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>108</v>
       </c>
@@ -5041,11 +4999,11 @@
       <c r="D37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -5058,11 +5016,11 @@
       <c r="D38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>113</v>
       </c>
@@ -5075,11 +5033,11 @@
       <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>117</v>
       </c>
@@ -5092,11 +5050,11 @@
       <c r="D40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>119</v>
       </c>
@@ -5109,11 +5067,11 @@
       <c r="D41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>121</v>
       </c>
@@ -5126,11 +5084,11 @@
       <c r="D42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>122</v>
       </c>
@@ -5143,11 +5101,11 @@
       <c r="D43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="3" t="n">
-        <v>53000</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>124</v>
       </c>
@@ -5160,11 +5118,11 @@
       <c r="D44" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>127</v>
       </c>
@@ -5177,11 +5135,11 @@
       <c r="D45" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>130</v>
       </c>
@@ -5194,11 +5152,11 @@
       <c r="D46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>133</v>
       </c>
@@ -5211,11 +5169,11 @@
       <c r="D47" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>134</v>
       </c>
@@ -5228,11 +5186,11 @@
       <c r="D48" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>136</v>
       </c>
@@ -5245,11 +5203,11 @@
       <c r="D49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>137</v>
       </c>
@@ -5262,11 +5220,11 @@
       <c r="D50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>141</v>
       </c>
@@ -5279,11 +5237,11 @@
       <c r="D51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>142</v>
       </c>
@@ -5296,11 +5254,11 @@
       <c r="D52" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>145</v>
       </c>
@@ -5313,11 +5271,11 @@
       <c r="D53" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>149</v>
       </c>
@@ -5330,11 +5288,11 @@
       <c r="D54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="3">
         <v>43000</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>151</v>
       </c>
@@ -5347,11 +5305,11 @@
       <c r="D55" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>154</v>
       </c>
@@ -5364,11 +5322,11 @@
       <c r="D56" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
@@ -5381,11 +5339,11 @@
       <c r="D57" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -5398,11 +5356,11 @@
       <c r="D58" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>163</v>
       </c>
@@ -5415,11 +5373,11 @@
       <c r="D59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>165</v>
       </c>
@@ -5432,11 +5390,11 @@
       <c r="D60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="3">
         <v>54000</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>167</v>
       </c>
@@ -5449,11 +5407,11 @@
       <c r="D61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>169</v>
       </c>
@@ -5466,11 +5424,11 @@
       <c r="D62" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>170</v>
       </c>
@@ -5483,11 +5441,11 @@
       <c r="D63" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>172</v>
       </c>
@@ -5500,11 +5458,11 @@
       <c r="D64" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>174</v>
       </c>
@@ -5517,11 +5475,11 @@
       <c r="D65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>176</v>
       </c>
@@ -5534,11 +5492,11 @@
       <c r="D66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>178</v>
       </c>
@@ -5551,11 +5509,11 @@
       <c r="D67" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -5568,11 +5526,11 @@
       <c r="D68" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>180</v>
       </c>
@@ -5585,11 +5543,11 @@
       <c r="D69" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>181</v>
       </c>
@@ -5602,11 +5560,11 @@
       <c r="D70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>183</v>
       </c>
@@ -5619,11 +5577,11 @@
       <c r="D71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>184</v>
       </c>
@@ -5636,11 +5594,11 @@
       <c r="D72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>186</v>
       </c>
@@ -5653,11 +5611,11 @@
       <c r="D73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>188</v>
       </c>
@@ -5670,11 +5628,11 @@
       <c r="D74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>189</v>
       </c>
@@ -5687,11 +5645,11 @@
       <c r="D75" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>192</v>
       </c>
@@ -5704,11 +5662,11 @@
       <c r="D76" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>195</v>
       </c>
@@ -5721,11 +5679,11 @@
       <c r="D77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>197</v>
       </c>
@@ -5738,11 +5696,11 @@
       <c r="D78" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>200</v>
       </c>
@@ -5755,11 +5713,11 @@
       <c r="D79" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>201</v>
       </c>
@@ -5772,11 +5730,11 @@
       <c r="D80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>202</v>
       </c>
@@ -5789,11 +5747,11 @@
       <c r="D81" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>204</v>
       </c>
@@ -5806,11 +5764,11 @@
       <c r="D82" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>208</v>
       </c>
@@ -5823,11 +5781,11 @@
       <c r="D83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>210</v>
       </c>
@@ -5840,11 +5798,11 @@
       <c r="D84" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -5857,11 +5815,11 @@
       <c r="D85" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>216</v>
       </c>
@@ -5874,11 +5832,11 @@
       <c r="D86" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>219</v>
       </c>
@@ -5891,11 +5849,11 @@
       <c r="D87" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>221</v>
       </c>
@@ -5908,11 +5866,11 @@
       <c r="D88" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>225</v>
       </c>
@@ -5925,11 +5883,11 @@
       <c r="D89" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>229</v>
       </c>
@@ -5942,11 +5900,11 @@
       <c r="D90" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>231</v>
       </c>
@@ -5959,11 +5917,11 @@
       <c r="D91" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>232</v>
       </c>
@@ -5976,11 +5934,11 @@
       <c r="D92" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>234</v>
       </c>
@@ -5993,11 +5951,11 @@
       <c r="D93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>236</v>
       </c>
@@ -6010,11 +5968,11 @@
       <c r="D94" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>238</v>
       </c>
@@ -6027,11 +5985,11 @@
       <c r="D95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>240</v>
       </c>
@@ -6044,11 +6002,11 @@
       <c r="D96" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="3">
         <v>62000</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>242</v>
       </c>
@@ -6061,11 +6019,11 @@
       <c r="D97" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>244</v>
       </c>
@@ -6078,11 +6036,11 @@
       <c r="D98" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>247</v>
       </c>
@@ -6095,11 +6053,11 @@
       <c r="D99" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>250</v>
       </c>
@@ -6112,11 +6070,11 @@
       <c r="D100" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>252</v>
       </c>
@@ -6129,11 +6087,11 @@
       <c r="D101" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>255</v>
       </c>
@@ -6146,11 +6104,11 @@
       <c r="D102" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="E102" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>258</v>
       </c>
@@ -6163,11 +6121,11 @@
       <c r="D103" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="E103" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>259</v>
       </c>
@@ -6180,11 +6138,11 @@
       <c r="D104" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="E104" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>261</v>
       </c>
@@ -6197,11 +6155,11 @@
       <c r="D105" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>263</v>
       </c>
@@ -6212,11 +6170,11 @@
         <v>217</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="3" t="n">
+      <c r="E106" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>265</v>
       </c>
@@ -6229,11 +6187,11 @@
       <c r="D107" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="E107" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>267</v>
       </c>
@@ -6246,11 +6204,11 @@
       <c r="D108" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="E108" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>269</v>
       </c>
@@ -6263,11 +6221,11 @@
       <c r="D109" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="E109" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>271</v>
       </c>
@@ -6280,11 +6238,11 @@
       <c r="D110" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="3" t="n">
+      <c r="E110" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>272</v>
       </c>
@@ -6297,11 +6255,11 @@
       <c r="D111" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="E111" s="3">
         <v>63000</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>274</v>
       </c>
@@ -6314,11 +6272,11 @@
       <c r="D112" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>276</v>
       </c>
@@ -6331,11 +6289,11 @@
       <c r="D113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="E113" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>280</v>
       </c>
@@ -6348,11 +6306,11 @@
       <c r="D114" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="E114" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>281</v>
       </c>
@@ -6365,11 +6323,11 @@
       <c r="D115" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="E115" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>282</v>
       </c>
@@ -6382,11 +6340,11 @@
       <c r="D116" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="E116" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>284</v>
       </c>
@@ -6399,11 +6357,11 @@
       <c r="D117" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>288</v>
       </c>
@@ -6416,11 +6374,11 @@
       <c r="D118" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="E118" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>290</v>
       </c>
@@ -6433,11 +6391,11 @@
       <c r="D119" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="E119" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>291</v>
       </c>
@@ -6450,11 +6408,11 @@
       <c r="D120" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="E120" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>293</v>
       </c>
@@ -6467,11 +6425,11 @@
       <c r="D121" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="E121" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>295</v>
       </c>
@@ -6484,11 +6442,11 @@
       <c r="D122" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="E122" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>297</v>
       </c>
@@ -6501,11 +6459,11 @@
       <c r="D123" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="E123" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>299</v>
       </c>
@@ -6518,11 +6476,11 @@
       <c r="D124" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="E124" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>301</v>
       </c>
@@ -6535,11 +6493,11 @@
       <c r="D125" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="E125" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>302</v>
       </c>
@@ -6552,11 +6510,11 @@
       <c r="D126" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="E126" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>304</v>
       </c>
@@ -6569,11 +6527,11 @@
       <c r="D127" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="E127" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>307</v>
       </c>
@@ -6586,11 +6544,11 @@
       <c r="D128" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>310</v>
       </c>
@@ -6603,11 +6561,11 @@
       <c r="D129" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="E129" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>313</v>
       </c>
@@ -6620,11 +6578,11 @@
       <c r="D130" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="E130" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>315</v>
       </c>
@@ -6637,11 +6595,11 @@
       <c r="D131" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="E131" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>318</v>
       </c>
@@ -6654,11 +6612,11 @@
       <c r="D132" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="E132" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>319</v>
       </c>
@@ -6671,11 +6629,11 @@
       <c r="D133" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="E133" s="3">
         <v>175000</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>322</v>
       </c>
@@ -6688,11 +6646,11 @@
       <c r="D134" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>324</v>
       </c>
@@ -6705,11 +6663,11 @@
       <c r="D135" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="E135" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>327</v>
       </c>
@@ -6722,11 +6680,11 @@
       <c r="D136" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="E136" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>330</v>
       </c>
@@ -6739,11 +6697,11 @@
       <c r="D137" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="E137" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>331</v>
       </c>
@@ -6756,11 +6714,11 @@
       <c r="D138" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="E138" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>333</v>
       </c>
@@ -6773,11 +6731,11 @@
       <c r="D139" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="E139" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>336</v>
       </c>
@@ -6790,11 +6748,11 @@
       <c r="D140" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="E140" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>338</v>
       </c>
@@ -6807,11 +6765,11 @@
       <c r="D141" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="E141" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>341</v>
       </c>
@@ -6824,11 +6782,11 @@
       <c r="D142" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="E142" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>343</v>
       </c>
@@ -6841,11 +6799,11 @@
       <c r="D143" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="E143" s="3">
         <v>72900</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>345</v>
       </c>
@@ -6858,11 +6816,11 @@
       <c r="D144" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="E144" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>348</v>
       </c>
@@ -6875,11 +6833,11 @@
       <c r="D145" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="E145" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>349</v>
       </c>
@@ -6892,11 +6850,11 @@
       <c r="D146" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E146" s="3" t="n">
+      <c r="E146" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>351</v>
       </c>
@@ -6909,11 +6867,11 @@
       <c r="D147" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E147" s="3" t="n">
+      <c r="E147" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>354</v>
       </c>
@@ -6926,11 +6884,11 @@
       <c r="D148" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E148" s="3" t="n">
+      <c r="E148" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>356</v>
       </c>
@@ -6943,11 +6901,11 @@
       <c r="D149" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E149" s="3" t="n">
+      <c r="E149" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>358</v>
       </c>
@@ -6960,11 +6918,11 @@
       <c r="D150" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E150" s="3" t="n">
+      <c r="E150" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>360</v>
       </c>
@@ -6977,11 +6935,11 @@
       <c r="D151" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E151" s="3" t="n">
+      <c r="E151" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>362</v>
       </c>
@@ -6994,11 +6952,11 @@
       <c r="D152" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E152" s="3" t="n">
+      <c r="E152" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>365</v>
       </c>
@@ -7011,11 +6969,11 @@
       <c r="D153" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E153" s="3" t="n">
+      <c r="E153" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>367</v>
       </c>
@@ -7028,11 +6986,11 @@
       <c r="D154" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E154" s="3" t="n">
+      <c r="E154" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>370</v>
       </c>
@@ -7045,11 +7003,11 @@
       <c r="D155" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E155" s="3" t="n">
+      <c r="E155" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>373</v>
       </c>
@@ -7062,11 +7020,11 @@
       <c r="D156" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E156" s="3" t="n">
+      <c r="E156" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>374</v>
       </c>
@@ -7079,11 +7037,11 @@
       <c r="D157" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E157" s="3" t="n">
+      <c r="E157" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>378</v>
       </c>
@@ -7096,11 +7054,11 @@
       <c r="D158" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="E158" s="3" t="n">
+      <c r="E158" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>380</v>
       </c>
@@ -7113,11 +7071,11 @@
       <c r="D159" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E159" s="3" t="n">
+      <c r="E159" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>383</v>
       </c>
@@ -7130,11 +7088,11 @@
       <c r="D160" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E160" s="3" t="n">
+      <c r="E160" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>386</v>
       </c>
@@ -7147,11 +7105,11 @@
       <c r="D161" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E161" s="3" t="n">
+      <c r="E161" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>388</v>
       </c>
@@ -7164,11 +7122,11 @@
       <c r="D162" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E162" s="3" t="n">
+      <c r="E162" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>390</v>
       </c>
@@ -7181,11 +7139,11 @@
       <c r="D163" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="E163" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>392</v>
       </c>
@@ -7198,11 +7156,11 @@
       <c r="D164" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E164" s="3" t="n">
+      <c r="E164" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>394</v>
       </c>
@@ -7215,11 +7173,11 @@
       <c r="D165" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E165" s="3" t="n">
+      <c r="E165" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>397</v>
       </c>
@@ -7232,11 +7190,11 @@
       <c r="D166" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E166" s="3" t="n">
+      <c r="E166" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>399</v>
       </c>
@@ -7249,11 +7207,11 @@
       <c r="D167" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E167" s="3" t="n">
+      <c r="E167" s="3">
         <v>60000</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>402</v>
       </c>
@@ -7266,11 +7224,11 @@
       <c r="D168" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="E168" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>403</v>
       </c>
@@ -7283,11 +7241,11 @@
       <c r="D169" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="E169" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>405</v>
       </c>
@@ -7300,11 +7258,11 @@
       <c r="D170" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="E170" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>407</v>
       </c>
@@ -7317,11 +7275,11 @@
       <c r="D171" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="E171" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>409</v>
       </c>
@@ -7334,11 +7292,11 @@
       <c r="D172" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="E172" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>413</v>
       </c>
@@ -7351,11 +7309,11 @@
       <c r="D173" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="E173" s="3" t="n">
+      <c r="E173" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>415</v>
       </c>
@@ -7368,11 +7326,11 @@
       <c r="D174" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E174" s="3" t="n">
+      <c r="E174" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>417</v>
       </c>
@@ -7385,11 +7343,11 @@
       <c r="D175" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E175" s="3" t="n">
+      <c r="E175" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>419</v>
       </c>
@@ -7402,11 +7360,11 @@
       <c r="D176" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="E176" s="3" t="n">
+      <c r="E176" s="3">
         <v>180000</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>421</v>
       </c>
@@ -7419,11 +7377,11 @@
       <c r="D177" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E177" s="3" t="n">
+      <c r="E177" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>423</v>
       </c>
@@ -7436,11 +7394,11 @@
       <c r="D178" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E178" s="3" t="n">
+      <c r="E178" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>425</v>
       </c>
@@ -7453,11 +7411,11 @@
       <c r="D179" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E179" s="3" t="n">
+      <c r="E179" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>426</v>
       </c>
@@ -7470,11 +7428,11 @@
       <c r="D180" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E180" s="3" t="n">
+      <c r="E180" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>428</v>
       </c>
@@ -7487,11 +7445,11 @@
       <c r="D181" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="E181" s="3" t="n">
+      <c r="E181" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>431</v>
       </c>
@@ -7504,11 +7462,11 @@
       <c r="D182" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E182" s="3" t="n">
+      <c r="E182" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>433</v>
       </c>
@@ -7521,11 +7479,11 @@
       <c r="D183" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E183" s="3" t="n">
+      <c r="E183" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>435</v>
       </c>
@@ -7538,11 +7496,11 @@
       <c r="D184" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E184" s="3" t="n">
+      <c r="E184" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>438</v>
       </c>
@@ -7555,11 +7513,11 @@
       <c r="D185" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E185" s="3" t="n">
+      <c r="E185" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>441</v>
       </c>
@@ -7572,11 +7530,11 @@
       <c r="D186" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E186" s="3" t="n">
+      <c r="E186" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>443</v>
       </c>
@@ -7589,11 +7547,11 @@
       <c r="D187" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E187" s="3" t="n">
+      <c r="E187" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>445</v>
       </c>
@@ -7606,11 +7564,11 @@
       <c r="D188" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="E188" s="3" t="n">
+      <c r="E188" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>447</v>
       </c>
@@ -7623,11 +7581,11 @@
       <c r="D189" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E189" s="3" t="n">
+      <c r="E189" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>448</v>
       </c>
@@ -7640,11 +7598,11 @@
       <c r="D190" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E190" s="3" t="n">
+      <c r="E190" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>450</v>
       </c>
@@ -7657,11 +7615,11 @@
       <c r="D191" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E191" s="3" t="n">
+      <c r="E191" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>452</v>
       </c>
@@ -7674,11 +7632,11 @@
       <c r="D192" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E192" s="3" t="n">
+      <c r="E192" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>453</v>
       </c>
@@ -7691,11 +7649,11 @@
       <c r="D193" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E193" s="3" t="n">
+      <c r="E193" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>455</v>
       </c>
@@ -7708,11 +7666,11 @@
       <c r="D194" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="E194" s="3" t="n">
+      <c r="E194" s="3">
         <v>80000</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>458</v>
       </c>
@@ -7725,11 +7683,11 @@
       <c r="D195" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E195" s="3" t="n">
+      <c r="E195" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>460</v>
       </c>
@@ -7742,11 +7700,11 @@
       <c r="D196" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E196" s="3" t="n">
+      <c r="E196" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>462</v>
       </c>
@@ -7759,11 +7717,11 @@
       <c r="D197" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E197" s="3" t="n">
+      <c r="E197" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>464</v>
       </c>
@@ -7776,11 +7734,11 @@
       <c r="D198" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E198" s="3" t="n">
+      <c r="E198" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>468</v>
       </c>
@@ -7793,11 +7751,11 @@
       <c r="D199" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E199" s="3" t="n">
+      <c r="E199" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>470</v>
       </c>
@@ -7810,11 +7768,11 @@
       <c r="D200" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E200" s="3" t="n">
+      <c r="E200" s="3">
         <v>75000</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>472</v>
       </c>
@@ -7827,11 +7785,11 @@
       <c r="D201" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E201" s="3" t="n">
+      <c r="E201" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>474</v>
       </c>
@@ -7844,11 +7802,11 @@
       <c r="D202" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E202" s="3" t="n">
+      <c r="E202" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>476</v>
       </c>
@@ -7861,11 +7819,11 @@
       <c r="D203" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E203" s="3" t="n">
+      <c r="E203" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>478</v>
       </c>
@@ -7878,11 +7836,11 @@
       <c r="D204" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E204" s="3" t="n">
+      <c r="E204" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>480</v>
       </c>
@@ -7895,11 +7853,11 @@
       <c r="D205" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E205" s="3" t="n">
+      <c r="E205" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>481</v>
       </c>
@@ -7912,11 +7870,11 @@
       <c r="D206" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E206" s="3" t="n">
+      <c r="E206" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>483</v>
       </c>
@@ -7929,11 +7887,11 @@
       <c r="D207" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E207" s="3" t="n">
+      <c r="E207" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>485</v>
       </c>
@@ -7946,11 +7904,11 @@
       <c r="D208" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="3" t="n">
+      <c r="E208" s="3">
         <v>70000</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>487</v>
       </c>
@@ -7963,11 +7921,11 @@
       <c r="D209" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E209" s="3" t="n">
+      <c r="E209" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>489</v>
       </c>
@@ -7980,11 +7938,11 @@
       <c r="D210" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E210" s="3" t="n">
+      <c r="E210" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>491</v>
       </c>
@@ -7997,11 +7955,11 @@
       <c r="D211" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E211" s="3" t="n">
+      <c r="E211" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>493</v>
       </c>
@@ -8014,11 +7972,11 @@
       <c r="D212" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E212" s="3" t="n">
+      <c r="E212" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>494</v>
       </c>
@@ -8031,11 +7989,11 @@
       <c r="D213" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E213" s="3" t="n">
+      <c r="E213" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>495</v>
       </c>
@@ -8048,11 +8006,11 @@
       <c r="D214" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E214" s="3" t="n">
+      <c r="E214" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>496</v>
       </c>
@@ -8065,11 +8023,11 @@
       <c r="D215" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E215" s="3" t="n">
+      <c r="E215" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>498</v>
       </c>
@@ -8082,11 +8040,11 @@
       <c r="D216" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E216" s="3" t="n">
+      <c r="E216" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>500</v>
       </c>
@@ -8099,11 +8057,11 @@
       <c r="D217" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E217" s="3" t="n">
+      <c r="E217" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>501</v>
       </c>
@@ -8116,11 +8074,11 @@
       <c r="D218" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E218" s="3" t="n">
+      <c r="E218" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>502</v>
       </c>
@@ -8133,11 +8091,11 @@
       <c r="D219" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E219" s="3" t="n">
+      <c r="E219" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>504</v>
       </c>
@@ -8150,11 +8108,11 @@
       <c r="D220" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E220" s="3" t="n">
+      <c r="E220" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>506</v>
       </c>
@@ -8167,11 +8125,11 @@
       <c r="D221" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E221" s="3" t="n">
+      <c r="E221" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>507</v>
       </c>
@@ -8184,11 +8142,11 @@
       <c r="D222" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E222" s="3" t="n">
+      <c r="E222" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>509</v>
       </c>
@@ -8201,11 +8159,11 @@
       <c r="D223" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E223" s="3" t="n">
+      <c r="E223" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>511</v>
       </c>
@@ -8218,11 +8176,11 @@
       <c r="D224" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E224" s="3" t="n">
+      <c r="E224" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>513</v>
       </c>
@@ -8235,11 +8193,11 @@
       <c r="D225" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E225" s="3" t="n">
+      <c r="E225" s="3">
         <v>85000</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>515</v>
       </c>
@@ -8252,11 +8210,11 @@
       <c r="D226" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E226" s="3" t="n">
+      <c r="E226" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>517</v>
       </c>
@@ -8269,11 +8227,11 @@
       <c r="D227" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E227" s="3" t="n">
+      <c r="E227" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>519</v>
       </c>
@@ -8286,11 +8244,11 @@
       <c r="D228" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E228" s="3" t="n">
+      <c r="E228" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>521</v>
       </c>
@@ -8303,11 +8261,11 @@
       <c r="D229" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E229" s="3" t="n">
+      <c r="E229" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>523</v>
       </c>
@@ -8320,11 +8278,11 @@
       <c r="D230" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="E230" s="3" t="n">
+      <c r="E230" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>525</v>
       </c>
@@ -8337,11 +8295,11 @@
       <c r="D231" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E231" s="3" t="n">
+      <c r="E231" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>527</v>
       </c>
@@ -8354,11 +8312,11 @@
       <c r="D232" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E232" s="3" t="n">
+      <c r="E232" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>529</v>
       </c>
@@ -8371,11 +8329,11 @@
       <c r="D233" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E233" s="3" t="n">
+      <c r="E233" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>532</v>
       </c>
@@ -8388,11 +8346,11 @@
       <c r="D234" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E234" s="3" t="n">
+      <c r="E234" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>534</v>
       </c>
@@ -8405,11 +8363,11 @@
       <c r="D235" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E235" s="3" t="n">
+      <c r="E235" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>535</v>
       </c>
@@ -8422,11 +8380,11 @@
       <c r="D236" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E236" s="3" t="n">
+      <c r="E236" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>536</v>
       </c>
@@ -8439,11 +8397,11 @@
       <c r="D237" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E237" s="3" t="n">
+      <c r="E237" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>539</v>
       </c>
@@ -8456,11 +8414,11 @@
       <c r="D238" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E238" s="3" t="n">
+      <c r="E238" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>540</v>
       </c>
@@ -8473,11 +8431,11 @@
       <c r="D239" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E239" s="3" t="n">
+      <c r="E239" s="3">
         <v>90000</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>544</v>
       </c>
@@ -8490,11 +8448,11 @@
       <c r="D240" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E240" s="3" t="n">
+      <c r="E240" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>546</v>
       </c>
@@ -8507,11 +8465,11 @@
       <c r="D241" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E241" s="3" t="n">
+      <c r="E241" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>547</v>
       </c>
@@ -8524,11 +8482,11 @@
       <c r="D242" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E242" s="3" t="n">
+      <c r="E242" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>548</v>
       </c>
@@ -8541,11 +8499,11 @@
       <c r="D243" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E243" s="3" t="n">
+      <c r="E243" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>550</v>
       </c>
@@ -8558,11 +8516,11 @@
       <c r="D244" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="E244" s="3" t="n">
+      <c r="E244" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>552</v>
       </c>
@@ -8575,11 +8533,11 @@
       <c r="D245" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E245" s="3" t="n">
+      <c r="E245" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>553</v>
       </c>
@@ -8592,11 +8550,11 @@
       <c r="D246" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E246" s="3" t="n">
+      <c r="E246" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>555</v>
       </c>
@@ -8609,11 +8567,11 @@
       <c r="D247" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E247" s="3" t="n">
+      <c r="E247" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>556</v>
       </c>
@@ -8626,11 +8584,11 @@
       <c r="D248" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E248" s="3" t="n">
+      <c r="E248" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>558</v>
       </c>
@@ -8643,11 +8601,11 @@
       <c r="D249" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="E249" s="3" t="n">
+      <c r="E249" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>561</v>
       </c>
@@ -8660,11 +8618,11 @@
       <c r="D250" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="E250" s="3" t="n">
+      <c r="E250" s="3">
         <v>105000</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>563</v>
       </c>
@@ -8677,11 +8635,11 @@
       <c r="D251" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E251" s="3" t="n">
+      <c r="E251" s="3">
         <v>95000</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>566</v>
       </c>
@@ -8694,11 +8652,11 @@
       <c r="D252" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E252" s="3" t="n">
+      <c r="E252" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>567</v>
       </c>
@@ -8711,11 +8669,11 @@
       <c r="D253" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="E253" s="3" t="n">
+      <c r="E253" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>570</v>
       </c>
@@ -8728,11 +8686,11 @@
       <c r="D254" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E254" s="3" t="n">
+      <c r="E254" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>572</v>
       </c>
@@ -8745,11 +8703,11 @@
       <c r="D255" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="E255" s="3" t="n">
+      <c r="E255" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>574</v>
       </c>
@@ -8762,11 +8720,11 @@
       <c r="D256" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="E256" s="3" t="n">
+      <c r="E256" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>575</v>
       </c>
@@ -8779,11 +8737,11 @@
       <c r="D257" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E257" s="3" t="n">
+      <c r="E257" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>577</v>
       </c>
@@ -8796,11 +8754,11 @@
       <c r="D258" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E258" s="3" t="n">
+      <c r="E258" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>579</v>
       </c>
@@ -8813,11 +8771,11 @@
       <c r="D259" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E259" s="3" t="n">
+      <c r="E259" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>580</v>
       </c>
@@ -8830,11 +8788,11 @@
       <c r="D260" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E260" s="3" t="n">
+      <c r="E260" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>582</v>
       </c>
@@ -8847,11 +8805,11 @@
       <c r="D261" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E261" s="3" t="n">
+      <c r="E261" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>583</v>
       </c>
@@ -8864,11 +8822,11 @@
       <c r="D262" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E262" s="3" t="n">
+      <c r="E262" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>585</v>
       </c>
@@ -8881,11 +8839,11 @@
       <c r="D263" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E263" s="3" t="n">
+      <c r="E263" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>588</v>
       </c>
@@ -8898,11 +8856,11 @@
       <c r="D264" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E264" s="3" t="n">
+      <c r="E264" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>589</v>
       </c>
@@ -8915,11 +8873,11 @@
       <c r="D265" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E265" s="3" t="n">
+      <c r="E265" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>591</v>
       </c>
@@ -8932,11 +8890,11 @@
       <c r="D266" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E266" s="3" t="n">
+      <c r="E266" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>592</v>
       </c>
@@ -8949,11 +8907,11 @@
       <c r="D267" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E267" s="3" t="n">
+      <c r="E267" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>594</v>
       </c>
@@ -8966,11 +8924,11 @@
       <c r="D268" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E268" s="3" t="n">
+      <c r="E268" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>596</v>
       </c>
@@ -8983,11 +8941,11 @@
       <c r="D269" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E269" s="3" t="n">
+      <c r="E269" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>597</v>
       </c>
@@ -9000,11 +8958,11 @@
       <c r="D270" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E270" s="3" t="n">
+      <c r="E270" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="8" t="s">
         <v>599</v>
       </c>
@@ -9017,11 +8975,11 @@
       <c r="D271" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E271" s="3" t="n">
+      <c r="E271" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>601</v>
       </c>
@@ -9034,11 +8992,11 @@
       <c r="D272" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E272" s="3" t="n">
+      <c r="E272" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>603</v>
       </c>
@@ -9051,11 +9009,11 @@
       <c r="D273" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E273" s="3" t="n">
+      <c r="E273" s="3">
         <v>155000</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>604</v>
       </c>
@@ -9068,11 +9026,11 @@
       <c r="D274" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="E274" s="3" t="n">
+      <c r="E274" s="3">
         <v>210000</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>606</v>
       </c>
@@ -9085,11 +9043,11 @@
       <c r="D275" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E275" s="3" t="n">
+      <c r="E275" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>608</v>
       </c>
@@ -9102,11 +9060,11 @@
       <c r="D276" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E276" s="3" t="n">
+      <c r="E276" s="3">
         <v>165000</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>610</v>
       </c>
@@ -9119,11 +9077,11 @@
       <c r="D277" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E277" s="3" t="n">
+      <c r="E277" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>612</v>
       </c>
@@ -9136,11 +9094,11 @@
       <c r="D278" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E278" s="3" t="n">
+      <c r="E278" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>614</v>
       </c>
@@ -9153,11 +9111,11 @@
       <c r="D279" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="E279" s="3" t="n">
+      <c r="E279" s="3">
         <v>140000</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>617</v>
       </c>
@@ -9170,11 +9128,11 @@
       <c r="D280" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E280" s="3" t="n">
+      <c r="E280" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>621</v>
       </c>
@@ -9187,11 +9145,11 @@
       <c r="D281" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E281" s="3" t="n">
+      <c r="E281" s="3">
         <v>145000</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>623</v>
       </c>
@@ -9204,11 +9162,11 @@
       <c r="D282" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E282" s="3" t="n">
+      <c r="E282" s="3">
         <v>200000</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>625</v>
       </c>
@@ -9221,11 +9179,11 @@
       <c r="D283" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E283" s="3" t="n">
+      <c r="E283" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>627</v>
       </c>
@@ -9238,11 +9196,11 @@
       <c r="D284" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E284" s="3" t="n">
+      <c r="E284" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>630</v>
       </c>
@@ -9255,11 +9213,11 @@
       <c r="D285" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E285" s="3" t="n">
+      <c r="E285" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>633</v>
       </c>
@@ -9272,11 +9230,11 @@
       <c r="D286" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E286" s="3" t="n">
+      <c r="E286" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>636</v>
       </c>
@@ -9289,11 +9247,11 @@
       <c r="D287" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="E287" s="3" t="n">
+      <c r="E287" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>639</v>
       </c>
@@ -9306,11 +9264,11 @@
       <c r="D288" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="E288" s="3" t="n">
+      <c r="E288" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>640</v>
       </c>
@@ -9323,12 +9281,12 @@
       <c r="D289" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E289" s="3" t="n">
+      <c r="E289" s="3">
         <v>85000</v>
       </c>
       <c r="G289" s="8"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>643</v>
       </c>
@@ -9341,11 +9299,11 @@
       <c r="D290" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E290" s="3" t="n">
+      <c r="E290" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>647</v>
       </c>
@@ -9358,626 +9316,621 @@
       <c r="D291" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E291" s="3" t="n">
+      <c r="E291" s="3">
         <v>110000</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="202" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="201" priority="202"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="200" priority="201"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="199" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A8">
+    <cfRule type="duplicateValues" dxfId="198" priority="199"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="197" priority="198"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="196" priority="197"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="195" priority="196"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="194" priority="195"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="193" priority="194"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="192" priority="193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="191" priority="192"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="190" priority="204"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="189" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="188" priority="190"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="187" priority="189"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="186" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="185" priority="188"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="184" priority="187"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="183" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25 A27">
+    <cfRule type="duplicateValues" dxfId="182" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="181" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="180" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="179" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="178" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="177" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="176" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="175" priority="180"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="174" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="173" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="172" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="171" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="170" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="169" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="168" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="167" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="166" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="165" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="164" priority="171"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="163" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="162" priority="169"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="161" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="160" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="159" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="158" priority="167"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="157" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="duplicateValues" dxfId="156" priority="165"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="155" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="154" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="153" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="152" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62">
+    <cfRule type="duplicateValues" dxfId="151" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63">
+    <cfRule type="duplicateValues" dxfId="150" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
+    <cfRule type="duplicateValues" dxfId="149" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A65">
+    <cfRule type="duplicateValues" dxfId="148" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A66">
+    <cfRule type="duplicateValues" dxfId="147" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67">
+    <cfRule type="duplicateValues" dxfId="146" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A68">
+    <cfRule type="duplicateValues" dxfId="145" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="duplicateValues" dxfId="144" priority="154"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
+    <cfRule type="duplicateValues" dxfId="143" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
+    <cfRule type="duplicateValues" dxfId="142" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77">
+    <cfRule type="duplicateValues" dxfId="141" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="duplicateValues" dxfId="140" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="139" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="duplicateValues" dxfId="138" priority="150"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
+    <cfRule type="duplicateValues" dxfId="137" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A89">
+    <cfRule type="duplicateValues" dxfId="136" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="duplicateValues" dxfId="135" priority="147"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A91">
+    <cfRule type="duplicateValues" dxfId="134" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="duplicateValues" dxfId="133" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="duplicateValues" dxfId="132" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95">
+    <cfRule type="duplicateValues" dxfId="131" priority="143"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="duplicateValues" dxfId="130" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
+    <cfRule type="duplicateValues" dxfId="129" priority="141"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="duplicateValues" dxfId="128" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A100">
+    <cfRule type="duplicateValues" dxfId="127" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102">
+    <cfRule type="duplicateValues" dxfId="126" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
+    <cfRule type="duplicateValues" dxfId="125" priority="139"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A105">
+    <cfRule type="duplicateValues" dxfId="124" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108">
+    <cfRule type="duplicateValues" dxfId="123" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A109">
+    <cfRule type="duplicateValues" dxfId="122" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="121" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A111">
+    <cfRule type="duplicateValues" dxfId="120" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A112">
+    <cfRule type="duplicateValues" dxfId="119" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="duplicateValues" dxfId="118" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
+    <cfRule type="duplicateValues" dxfId="117" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="duplicateValues" dxfId="116" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="duplicateValues" dxfId="115" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A117">
+    <cfRule type="duplicateValues" dxfId="114" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A119">
+    <cfRule type="duplicateValues" dxfId="113" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A120">
+    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A121">
+    <cfRule type="duplicateValues" dxfId="111" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A122">
+    <cfRule type="duplicateValues" dxfId="110" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A123">
+    <cfRule type="duplicateValues" dxfId="109" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A124">
+    <cfRule type="duplicateValues" dxfId="108" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A125">
+    <cfRule type="duplicateValues" dxfId="107" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A126">
+    <cfRule type="duplicateValues" dxfId="106" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A129">
+    <cfRule type="duplicateValues" dxfId="105" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="duplicateValues" dxfId="104" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="duplicateValues" dxfId="103" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="duplicateValues" dxfId="102" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="duplicateValues" dxfId="101" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A137">
+    <cfRule type="duplicateValues" dxfId="100" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A138">
+    <cfRule type="duplicateValues" dxfId="99" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="duplicateValues" dxfId="98" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A140">
+    <cfRule type="duplicateValues" dxfId="97" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A142">
+    <cfRule type="duplicateValues" dxfId="96" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A143">
+    <cfRule type="duplicateValues" dxfId="95" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A144">
+    <cfRule type="duplicateValues" dxfId="94" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A146">
+    <cfRule type="duplicateValues" dxfId="93" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A148">
+    <cfRule type="duplicateValues" dxfId="92" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A149">
+    <cfRule type="duplicateValues" dxfId="91" priority="107"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151">
+    <cfRule type="duplicateValues" dxfId="90" priority="106"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152">
+    <cfRule type="duplicateValues" dxfId="89" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153">
+    <cfRule type="duplicateValues" dxfId="88" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A154">
+    <cfRule type="duplicateValues" dxfId="87" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A155">
+    <cfRule type="duplicateValues" dxfId="86" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A160">
+    <cfRule type="duplicateValues" dxfId="85" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A161">
+    <cfRule type="duplicateValues" dxfId="84" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A162">
+    <cfRule type="duplicateValues" dxfId="83" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A163:A164">
+    <cfRule type="duplicateValues" dxfId="82" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="81" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A166">
+    <cfRule type="duplicateValues" dxfId="80" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A167">
+    <cfRule type="duplicateValues" dxfId="79" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A168">
+    <cfRule type="duplicateValues" dxfId="78" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A169">
+    <cfRule type="duplicateValues" dxfId="77" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A170">
+    <cfRule type="duplicateValues" dxfId="76" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A171">
+    <cfRule type="duplicateValues" dxfId="75" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A174">
+    <cfRule type="duplicateValues" dxfId="74" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A175">
+    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A178">
+    <cfRule type="duplicateValues" dxfId="72" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A179">
+    <cfRule type="duplicateValues" dxfId="71" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A181">
+    <cfRule type="duplicateValues" dxfId="70" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A182:A184">
+    <cfRule type="duplicateValues" dxfId="69" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A186">
+    <cfRule type="duplicateValues" dxfId="68" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="67" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
+    <cfRule type="duplicateValues" dxfId="66" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="65" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A191">
+    <cfRule type="duplicateValues" dxfId="64" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A193">
+    <cfRule type="duplicateValues" dxfId="63" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A194">
+    <cfRule type="duplicateValues" dxfId="62" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A195">
+    <cfRule type="duplicateValues" dxfId="61" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A200">
+    <cfRule type="duplicateValues" dxfId="60" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A201">
+    <cfRule type="duplicateValues" dxfId="59" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A202">
+    <cfRule type="duplicateValues" dxfId="58" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A203">
+    <cfRule type="duplicateValues" dxfId="57" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A208">
+    <cfRule type="duplicateValues" dxfId="56" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A209">
+    <cfRule type="duplicateValues" dxfId="55" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210">
+    <cfRule type="duplicateValues" dxfId="54" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A211">
+    <cfRule type="duplicateValues" dxfId="53" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A215">
+    <cfRule type="duplicateValues" dxfId="52" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A216">
+    <cfRule type="duplicateValues" dxfId="51" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A217">
+    <cfRule type="duplicateValues" dxfId="50" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
+    <cfRule type="duplicateValues" dxfId="49" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A219">
+    <cfRule type="duplicateValues" dxfId="48" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="47" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="46" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A224">
+    <cfRule type="duplicateValues" dxfId="45" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A225">
+    <cfRule type="duplicateValues" dxfId="44" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A226">
+    <cfRule type="duplicateValues" dxfId="43" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A227">
+    <cfRule type="duplicateValues" dxfId="42" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A228">
+    <cfRule type="duplicateValues" dxfId="41" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A229">
+    <cfRule type="duplicateValues" dxfId="40" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A230">
+    <cfRule type="duplicateValues" dxfId="39" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A231">
+    <cfRule type="duplicateValues" dxfId="38" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A235">
+    <cfRule type="duplicateValues" dxfId="37" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A236">
+    <cfRule type="duplicateValues" dxfId="36" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A237">
+    <cfRule type="duplicateValues" dxfId="35" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A238">
+    <cfRule type="duplicateValues" dxfId="34" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A240">
+    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A241">
+    <cfRule type="duplicateValues" dxfId="32" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A243">
+    <cfRule type="duplicateValues" dxfId="31" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A244">
+    <cfRule type="duplicateValues" dxfId="30" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A246:A247">
+    <cfRule type="duplicateValues" dxfId="29" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A248">
+    <cfRule type="duplicateValues" dxfId="28" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A250">
+    <cfRule type="duplicateValues" dxfId="27" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A251">
+    <cfRule type="duplicateValues" dxfId="26" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A252">
+    <cfRule type="duplicateValues" dxfId="25" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A254">
+    <cfRule type="duplicateValues" dxfId="24" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A255">
+    <cfRule type="duplicateValues" dxfId="23" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A256">
+    <cfRule type="duplicateValues" dxfId="22" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A257">
+    <cfRule type="duplicateValues" dxfId="21" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A258">
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A259">
+    <cfRule type="duplicateValues" dxfId="19" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A260">
+    <cfRule type="duplicateValues" dxfId="18" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A262">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A264">
+    <cfRule type="duplicateValues" dxfId="16" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A265">
+    <cfRule type="duplicateValues" dxfId="15" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A266">
+    <cfRule type="duplicateValues" dxfId="14" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A267">
+    <cfRule type="duplicateValues" dxfId="13" priority="203"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A268">
+    <cfRule type="duplicateValues" dxfId="12" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A270">
+    <cfRule type="duplicateValues" dxfId="11" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A272">
+    <cfRule type="duplicateValues" dxfId="10" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A273">
+    <cfRule type="duplicateValues" dxfId="9" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A274">
+    <cfRule type="duplicateValues" dxfId="8" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A275">
+    <cfRule type="duplicateValues" dxfId="7" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A276">
+    <cfRule type="duplicateValues" dxfId="6" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A277">
+    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A278">
+    <cfRule type="duplicateValues" dxfId="4" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A279">
+    <cfRule type="duplicateValues" dxfId="3" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A280">
+    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A281">
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A282:A283">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A262">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251">
-    <cfRule type="duplicateValues" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A219">
-    <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A209">
-    <cfRule type="duplicateValues" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A121">
-    <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A236">
-    <cfRule type="duplicateValues" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A281">
-    <cfRule type="duplicateValues" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A280">
-    <cfRule type="duplicateValues" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A279">
-    <cfRule type="duplicateValues" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A278">
-    <cfRule type="duplicateValues" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A277">
-    <cfRule type="duplicateValues" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A276">
-    <cfRule type="duplicateValues" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A275">
-    <cfRule type="duplicateValues" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A274">
-    <cfRule type="duplicateValues" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A272">
-    <cfRule type="duplicateValues" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A273">
-    <cfRule type="duplicateValues" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A270">
-    <cfRule type="duplicateValues" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A268">
-    <cfRule type="duplicateValues" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A266">
-    <cfRule type="duplicateValues" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A265">
-    <cfRule type="duplicateValues" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A264">
-    <cfRule type="duplicateValues" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A260">
-    <cfRule type="duplicateValues" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A258">
-    <cfRule type="duplicateValues" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A259">
-    <cfRule type="duplicateValues" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A257">
-    <cfRule type="duplicateValues" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A256">
-    <cfRule type="duplicateValues" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A255">
-    <cfRule type="duplicateValues" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A254">
-    <cfRule type="duplicateValues" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A250">
-    <cfRule type="duplicateValues" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A248">
-    <cfRule type="duplicateValues" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A246:A247">
-    <cfRule type="duplicateValues" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A244">
-    <cfRule type="duplicateValues" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A243">
-    <cfRule type="duplicateValues" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A240">
-    <cfRule type="duplicateValues" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A241">
-    <cfRule type="duplicateValues" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A238">
-    <cfRule type="duplicateValues" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A252">
-    <cfRule type="duplicateValues" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A237">
-    <cfRule type="duplicateValues" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A235">
-    <cfRule type="duplicateValues" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A231">
-    <cfRule type="duplicateValues" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A230">
-    <cfRule type="duplicateValues" priority="59" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A229">
-    <cfRule type="duplicateValues" priority="60" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A228">
-    <cfRule type="duplicateValues" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A227">
-    <cfRule type="duplicateValues" priority="62" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A226">
-    <cfRule type="duplicateValues" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A225">
-    <cfRule type="duplicateValues" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A224">
-    <cfRule type="duplicateValues" priority="65" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" priority="66" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A221">
-    <cfRule type="duplicateValues" priority="67" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" priority="68" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A218">
-    <cfRule type="duplicateValues" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A211">
-    <cfRule type="duplicateValues" priority="71" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A210">
-    <cfRule type="duplicateValues" priority="72" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A208">
-    <cfRule type="duplicateValues" priority="73" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A203">
-    <cfRule type="duplicateValues" priority="74" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A202">
-    <cfRule type="duplicateValues" priority="75" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A201">
-    <cfRule type="duplicateValues" priority="76" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A200">
-    <cfRule type="duplicateValues" priority="77" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A195">
-    <cfRule type="duplicateValues" priority="78" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" priority="79" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A193">
-    <cfRule type="duplicateValues" priority="80" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" priority="81" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" priority="82" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
-    <cfRule type="duplicateValues" priority="83" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A186">
-    <cfRule type="duplicateValues" priority="84" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A182:A184">
-    <cfRule type="duplicateValues" priority="85" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A181">
-    <cfRule type="duplicateValues" priority="86" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A179">
-    <cfRule type="duplicateValues" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A178">
-    <cfRule type="duplicateValues" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A171">
-    <cfRule type="duplicateValues" priority="90" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A174">
-    <cfRule type="duplicateValues" priority="91" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A170">
-    <cfRule type="duplicateValues" priority="92" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A166">
-    <cfRule type="duplicateValues" priority="93" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" priority="94" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A169">
-    <cfRule type="duplicateValues" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A167">
-    <cfRule type="duplicateValues" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A168">
-    <cfRule type="duplicateValues" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A163:A164">
-    <cfRule type="duplicateValues" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A162">
-    <cfRule type="duplicateValues" priority="99" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A161">
-    <cfRule type="duplicateValues" priority="100" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A160">
-    <cfRule type="duplicateValues" priority="101" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A154">
-    <cfRule type="duplicateValues" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A153">
-    <cfRule type="duplicateValues" priority="104" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152">
-    <cfRule type="duplicateValues" priority="105" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A151">
-    <cfRule type="duplicateValues" priority="106" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" priority="107" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A148">
-    <cfRule type="duplicateValues" priority="108" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A146">
-    <cfRule type="duplicateValues" priority="109" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" priority="110" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A142">
-    <cfRule type="duplicateValues" priority="111" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A140">
-    <cfRule type="duplicateValues" priority="112" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A139">
-    <cfRule type="duplicateValues" priority="113" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A137">
-    <cfRule type="duplicateValues" priority="114" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A138">
-    <cfRule type="duplicateValues" priority="115" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" priority="116" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" priority="117" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" priority="118" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="duplicateValues" priority="119" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A129">
-    <cfRule type="duplicateValues" priority="120" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A126">
-    <cfRule type="duplicateValues" priority="121" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A125">
-    <cfRule type="duplicateValues" priority="122" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A124">
-    <cfRule type="duplicateValues" priority="123" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A123">
-    <cfRule type="duplicateValues" priority="124" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A122">
-    <cfRule type="duplicateValues" priority="125" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A120">
-    <cfRule type="duplicateValues" priority="126" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A119">
-    <cfRule type="duplicateValues" priority="127" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A117">
-    <cfRule type="duplicateValues" priority="128" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="duplicateValues" priority="129" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" priority="130" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" priority="131" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" priority="132" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A112">
-    <cfRule type="duplicateValues" priority="133" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" priority="134" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" priority="135" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" priority="136" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A108">
-    <cfRule type="duplicateValues" priority="137" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A105">
-    <cfRule type="duplicateValues" priority="138" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A104">
-    <cfRule type="duplicateValues" priority="139" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A102">
-    <cfRule type="duplicateValues" priority="140" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="duplicateValues" priority="141" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
-    <cfRule type="duplicateValues" priority="142" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="duplicateValues" priority="143" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="duplicateValues" priority="144" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92">
-    <cfRule type="duplicateValues" priority="145" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" priority="146" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="duplicateValues" priority="147" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" priority="148" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" priority="149" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" priority="150" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" priority="151" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" priority="152" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" priority="153" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="duplicateValues" priority="154" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
-    <cfRule type="duplicateValues" priority="155" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" priority="156" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
-    <cfRule type="duplicateValues" priority="157" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
-    <cfRule type="duplicateValues" priority="158" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="duplicateValues" priority="159" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
-    <cfRule type="duplicateValues" priority="160" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
-    <cfRule type="duplicateValues" priority="161" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="duplicateValues" priority="162" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" priority="163" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" priority="164" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" priority="165" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" priority="166" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" priority="167" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" priority="168" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" priority="169" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" priority="170" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" priority="171" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" priority="172" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" priority="173" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" priority="174" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" priority="175" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" priority="176" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" priority="177" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" priority="178" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" priority="179" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" priority="180" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" priority="181" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" priority="182" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" priority="183" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" priority="184" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25 A27">
-    <cfRule type="duplicateValues" priority="185" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" priority="186" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" priority="187" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" priority="188" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" priority="189" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" priority="190" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" priority="191" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" priority="192" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" priority="193" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" priority="194" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" priority="195" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" priority="196" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" priority="197" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" priority="198" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A8">
-    <cfRule type="duplicateValues" priority="199" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" priority="200" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" priority="201" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" priority="202" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A267">
-    <cfRule type="duplicateValues" priority="203" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" priority="204" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202"/>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>